--- a/ProjectoSena.xlsx
+++ b/ProjectoSena.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yparrado\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AD9686-9AB7-42B4-B976-1698CB2BD704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E2E370-2758-4C8B-A4DB-73BFE92DE270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OBJETIVOS" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="152">
   <si>
     <t>MECA ING</t>
   </si>
@@ -438,15 +438,9 @@
     <t>podra ingresar un Emal para poder iniciar sesion e ingresar a la app</t>
   </si>
   <si>
-    <t>onclick Password</t>
-  </si>
-  <si>
     <t>Podra ingresar una contraseña para poder iniciar sesion e ingresar a la app</t>
   </si>
   <si>
-    <t>onclick Confirm Password</t>
-  </si>
-  <si>
     <t>Se tendra que confirmar la contraseña ingresada anteriormente para validar su registro</t>
   </si>
   <si>
@@ -456,13 +450,97 @@
     <t>Se confirmara con la contrasña ingresadad en la base de datos</t>
   </si>
   <si>
-    <t>onclick bttn Sign Up</t>
-  </si>
-  <si>
     <t>Lo llevara a la pantalla 2 dejandote iniciar sesion con los datos ya registrados</t>
   </si>
   <si>
-    <t xml:space="preserve"> onLoad Olvide mi Contraseña</t>
+    <t>mostrar pantala O2</t>
+  </si>
+  <si>
+    <t>onLoad Olvide mi Contraseña</t>
+  </si>
+  <si>
+    <t>Lo dejara ingresar un correo electronico, el cual le llegara la informacion para poder recuperar su contraseña</t>
+  </si>
+  <si>
+    <t>Si no llega a encontrarse un correo en la base de datos, no se podra recuperar la contraseña</t>
+  </si>
+  <si>
+    <t>onclick btn Send Instructions</t>
+  </si>
+  <si>
+    <t>Permanecer en pantalla O2</t>
+  </si>
+  <si>
+    <t>Se encontrara en la BD el correo escrito</t>
+  </si>
+  <si>
+    <t>El boton lo dejara seguir con su recuperacion de su contraseña</t>
+  </si>
+  <si>
+    <t>onLoad Menu</t>
+  </si>
+  <si>
+    <t>mostrar pantalla 3</t>
+  </si>
+  <si>
+    <t>onClick bttn Sign Up</t>
+  </si>
+  <si>
+    <t>onClick Confirm Password</t>
+  </si>
+  <si>
+    <t>onClick Schedule Appointment</t>
+  </si>
+  <si>
+    <t>El boton lo llevara a el calendario para poder generar fecha, hora y tipo de servicio de su cita</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla C2</t>
+  </si>
+  <si>
+    <t>onClick My Appointment</t>
+  </si>
+  <si>
+    <t>El boton lo llevara a sus citas ya programadas y las que ya pasaron, para poder acordarle sus citas</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla A2</t>
+  </si>
+  <si>
+    <t>onClick Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El boton lo llevara a su perfil para que pueda verificar su informacion </t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla P2</t>
+  </si>
+  <si>
+    <t>onLoad Agendar Mantenimiento</t>
+  </si>
+  <si>
+    <t>mostrar pantalla C2</t>
+  </si>
+  <si>
+    <t>onClick Selecciona Hora</t>
+  </si>
+  <si>
+    <t>El boton lo llevara para seleccionar la hora de su cita</t>
+  </si>
+  <si>
+    <t>permanecer en pantalla C2</t>
+  </si>
+  <si>
+    <t>onClick Selecciona tipo de servicio</t>
+  </si>
+  <si>
+    <t>Ell boton lo llevara para seleccionar el tipo de servicio que desea agendar</t>
+  </si>
+  <si>
+    <t>onClick Confirmar</t>
+  </si>
+  <si>
+    <t>El boton confirmara su cita y la agendara en la BD</t>
   </si>
 </sst>
 </file>
@@ -939,28 +1017,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,13 +1050,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1000,7 +1078,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,40 +1090,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1055,13 +1129,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,12 +1144,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1154,82 +1223,159 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1459,13 +1605,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>52916</xdr:rowOff>
+      <xdr:rowOff>17888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2455333</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>21166</xdr:rowOff>
+      <xdr:colOff>2566831</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>169930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1488,8 +1634,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14022916"/>
-          <a:ext cx="2455333" cy="1926167"/>
+          <a:off x="0" y="13737465"/>
+          <a:ext cx="2566831" cy="2674155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>26833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8944</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232A0F67-B433-0BCC-DF44-D4F2E19480C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16456340"/>
+          <a:ext cx="2593662" cy="3514858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17889</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>151210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDAF5D2-A935-DE8E-C001-D364C0BC0035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="19971197"/>
+          <a:ext cx="2602606" cy="6858957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1759,71 +1993,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="54" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="2:6" ht="23.1" customHeight="1">
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="58" t="s">
+      <c r="C2" s="52"/>
+    </row>
+    <row r="3" spans="2:3" ht="23.15" customHeight="1">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="59"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75">
-      <c r="B6" s="27" t="s">
+      <c r="C4" s="56"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+    </row>
+    <row r="6" spans="2:3" ht="15.5">
+      <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="47.1" customHeight="1">
-      <c r="B7" s="52" t="s">
+    <row r="7" spans="2:3" ht="47.15" customHeight="1">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="27.95" customHeight="1">
-      <c r="B8" s="52"/>
+    <row r="8" spans="2:3" ht="28" customHeight="1">
+      <c r="B8" s="49"/>
       <c r="C8" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="47.1" customHeight="1">
-      <c r="B9" s="52"/>
-      <c r="C9" s="29" t="s">
+    <row r="9" spans="2:3" ht="47.15" customHeight="1">
+      <c r="B9" s="49"/>
+      <c r="C9" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1">
-      <c r="B10" s="53"/>
-      <c r="C10" s="30" t="s">
+    <row r="10" spans="2:3" ht="30" customHeight="1">
+      <c r="B10" s="50"/>
+      <c r="C10" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1845,62 +2077,62 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:6" ht="23.25" customHeight="1">
       <c r="A7" s="16" t="s">
@@ -1953,7 +2185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45.95" customHeight="1">
+    <row r="10" spans="1:6" ht="46" customHeight="1">
       <c r="A10" s="19">
         <v>3</v>
       </c>
@@ -1987,7 +2219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="32.1" customHeight="1">
+    <row r="12" spans="1:6" ht="32.15" customHeight="1">
       <c r="A12" s="19">
         <v>5</v>
       </c>
@@ -2004,7 +2236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="29">
       <c r="A13" s="19">
         <v>6</v>
       </c>
@@ -2021,7 +2253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.1" customHeight="1">
+    <row r="14" spans="1:6" ht="47.15" customHeight="1">
       <c r="A14" s="19">
         <v>7</v>
       </c>
@@ -2039,7 +2271,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" ht="47.1" customHeight="1">
+    <row r="15" spans="1:6" ht="47.15" customHeight="1">
       <c r="A15" s="19">
         <v>8</v>
       </c>
@@ -2056,7 +2288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30">
+    <row r="16" spans="1:6" ht="29">
       <c r="A16" s="19">
         <v>9</v>
       </c>
@@ -2073,7 +2305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45">
+    <row r="17" spans="1:5" ht="29">
       <c r="A17" s="19">
         <v>10</v>
       </c>
@@ -2090,7 +2322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="44.1" customHeight="1">
+    <row r="18" spans="1:5" ht="44.15" customHeight="1">
       <c r="A18" s="19">
         <v>11</v>
       </c>
@@ -2107,7 +2339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45.95" customHeight="1">
+    <row r="19" spans="1:5" ht="46" customHeight="1">
       <c r="A19" s="19">
         <v>12</v>
       </c>
@@ -2124,7 +2356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30">
+    <row r="20" spans="1:5" ht="29">
       <c r="A20" s="19">
         <v>13</v>
       </c>
@@ -2141,7 +2373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45">
+    <row r="21" spans="1:5" ht="43.5">
       <c r="A21" s="23">
         <v>14</v>
       </c>
@@ -2172,32 +2404,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:L56"/>
+  <dimension ref="A2:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84:E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
@@ -2221,670 +2453,1213 @@
       <c r="G3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="97"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="7"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="82"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="43"/>
-      <c r="C7" s="86" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="91" t="s">
+      <c r="D7" s="91"/>
+      <c r="E7" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="43"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
-    </row>
-    <row r="10" spans="1:12" ht="26.1" customHeight="1">
-      <c r="B10" s="44"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+    </row>
+    <row r="10" spans="1:12" ht="26.15" customHeight="1">
+      <c r="B10" s="42"/>
       <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="82"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="B12" s="46"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="82"/>
-    </row>
-    <row r="14" spans="1:12" ht="21.95" customHeight="1">
-      <c r="B14" s="42"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
+    </row>
+    <row r="14" spans="1:12" ht="22" customHeight="1">
+      <c r="B14" s="40"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="40"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-    </row>
-    <row r="15" spans="1:12" ht="23.1" customHeight="1">
-      <c r="B15" s="36" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
+    </row>
+    <row r="15" spans="1:12" ht="23.15" customHeight="1">
+      <c r="B15" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
       <c r="K15" s="14"/>
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="75.75" customHeight="1">
-      <c r="B16" s="49"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1">
-      <c r="B17" s="36" t="s">
+      <c r="H16" s="84"/>
+      <c r="I16" s="85"/>
+    </row>
+    <row r="17" spans="1:11" ht="16" customHeight="1">
+      <c r="B17" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="83"/>
       <c r="K17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="B18" s="90"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="92" t="s">
+      <c r="E18" s="90" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="94" t="s">
+      <c r="G18" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="97"/>
-      <c r="I18" s="98"/>
-    </row>
-    <row r="19" spans="1:11" ht="63.95" customHeight="1">
-      <c r="B19" s="90"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+    </row>
+    <row r="19" spans="1:11" ht="64" customHeight="1">
+      <c r="B19" s="94"/>
       <c r="C19" s="88"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="92"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="88"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="100"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="81"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="37" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
-    </row>
-    <row r="21" spans="1:11" ht="44.1" customHeight="1">
-      <c r="B21" s="90"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="83"/>
+    </row>
+    <row r="21" spans="1:11" ht="44.15" customHeight="1">
+      <c r="B21" s="94"/>
       <c r="C21" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="90" t="s">
         <v>87</v>
       </c>
       <c r="F21" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="94" t="s">
+      <c r="G21" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="97"/>
-      <c r="I21" s="98"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:11" ht="33" customHeight="1">
-      <c r="B22" s="90"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="88"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="92"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="88"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="100"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="81"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="83"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="85"/>
-      <c r="C24" s="89" t="s">
+      <c r="B24" s="75"/>
+      <c r="C24" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85" t="s">
+      <c r="D24" s="75"/>
+      <c r="E24" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="85" t="s">
+      <c r="F24" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="89" t="s">
+      <c r="G24" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="97"/>
-      <c r="I24" s="98"/>
-    </row>
-    <row r="25" spans="1:11" ht="48.95" customHeight="1">
-      <c r="B25" s="85"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
+    </row>
+    <row r="25" spans="1:11" ht="49" customHeight="1">
+      <c r="B25" s="75"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="40.5" customHeight="1">
       <c r="B26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="82"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1">
-      <c r="B27" s="85"/>
-      <c r="C27" s="89" t="s">
+      <c r="B27" s="75"/>
+      <c r="C27" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85" t="s">
+      <c r="D27" s="75"/>
+      <c r="E27" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="89" t="s">
+      <c r="F27" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="85"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="98"/>
-    </row>
-    <row r="28" spans="1:11" ht="32.1" customHeight="1">
-      <c r="B28" s="85"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="100"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+    </row>
+    <row r="28" spans="1:11" ht="32.15" customHeight="1">
+      <c r="B28" s="75"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="82"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="83"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85" t="s">
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="98"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="79"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="81"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="82"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="83"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="85"/>
-      <c r="C33" s="89" t="s">
+      <c r="B33" s="75"/>
+      <c r="C33" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="89" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="85" t="s">
+      <c r="F33" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="75"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="79"/>
+    </row>
+    <row r="34" spans="2:9" ht="26.15" customHeight="1">
+      <c r="B34" s="75"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="81"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="83"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" customHeight="1">
+      <c r="B36" s="75"/>
+      <c r="C36" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="75"/>
+      <c r="E36" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="75"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="79"/>
+    </row>
+    <row r="37" spans="2:9" ht="30.75" customHeight="1">
+      <c r="B37" s="75"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="81"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="99"/>
+    </row>
+    <row r="39" spans="2:9" ht="35.25" customHeight="1">
+      <c r="B39" s="75"/>
+      <c r="C39" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="75"/>
+      <c r="E39" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+    </row>
+    <row r="40" spans="2:9" ht="27.75" customHeight="1">
+      <c r="B40" s="75"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="99"/>
+    </row>
+    <row r="42" spans="2:9" ht="24.75" customHeight="1">
+      <c r="B42" s="75"/>
+      <c r="C42" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+    </row>
+    <row r="43" spans="2:9" ht="39.75" customHeight="1">
+      <c r="B43" s="75"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="99"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="75"/>
+      <c r="C45" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="85"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="98"/>
-    </row>
-    <row r="34" spans="2:9" ht="26.1" customHeight="1">
-      <c r="B34" s="85"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="51" t="s">
+      <c r="D45" s="75"/>
+      <c r="E45" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+    </row>
+    <row r="46" spans="2:9" ht="33" customHeight="1">
+      <c r="B46" s="75"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+    </row>
+    <row r="47" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B47" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="105"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+    </row>
+    <row r="50" spans="2:9" ht="24.5" customHeight="1">
+      <c r="B50" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="82"/>
-    </row>
-    <row r="36" spans="2:9" ht="18" customHeight="1">
-      <c r="B36" s="85"/>
-      <c r="C36" s="89" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="85"/>
-      <c r="E36" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="85"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
-    </row>
-    <row r="37" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B37" s="85"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="100"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-    </row>
-    <row r="39" spans="2:9" ht="35.25" customHeight="1">
-      <c r="B39" s="85"/>
-      <c r="C39" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-    </row>
-    <row r="40" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B40" s="85"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-    </row>
-    <row r="41" spans="2:9" ht="30">
-      <c r="B41" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-    </row>
-    <row r="42" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B42" s="85"/>
-      <c r="C42" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-    </row>
-    <row r="43" spans="2:9" ht="39.75" customHeight="1">
-      <c r="B43" s="85"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="85"/>
-      <c r="C45" s="89" t="s">
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="105"/>
+    </row>
+    <row r="51" spans="2:9" ht="31.5" customHeight="1">
+      <c r="B51" s="103"/>
+      <c r="C51" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85" t="s">
+      <c r="D51" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+    </row>
+    <row r="52" spans="2:9" ht="34" customHeight="1">
+      <c r="B52" s="103"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="105"/>
+    </row>
+    <row r="54" spans="2:9" ht="30" customHeight="1">
+      <c r="B54" s="108"/>
+      <c r="C54" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-    </row>
-    <row r="46" spans="2:9" ht="33" customHeight="1">
-      <c r="B46" s="85"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-    </row>
-    <row r="47" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B47" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="104"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="101"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="79"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="109"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="81"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="102"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="102"/>
-      <c r="I56" s="102"/>
+      <c r="B56" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="113"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="115"/>
+    </row>
+    <row r="59" spans="2:9" ht="29">
+      <c r="B59" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+    </row>
+    <row r="60" spans="2:9" ht="31.5" customHeight="1">
+      <c r="B60" s="116"/>
+      <c r="C60" s="123" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="116"/>
+      <c r="E60" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="119"/>
+    </row>
+    <row r="61" spans="2:9" ht="34.5" customHeight="1">
+      <c r="B61" s="117"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="121"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+    </row>
+    <row r="63" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B63" s="106"/>
+      <c r="C63" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="79"/>
+    </row>
+    <row r="64" spans="2:9" ht="30.5" customHeight="1">
+      <c r="B64" s="107"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="80"/>
+      <c r="I64" s="81"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+    </row>
+    <row r="66" spans="2:9" ht="23" customHeight="1">
+      <c r="B66" s="106"/>
+      <c r="C66" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="108"/>
+      <c r="E66" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="79"/>
+    </row>
+    <row r="67" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B67" s="107"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="81"/>
+    </row>
+    <row r="68" spans="2:9" ht="29">
+      <c r="B68" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="100"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="100"/>
+      <c r="G69" s="100"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="100"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="100"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+    </row>
+    <row r="72" spans="2:9" ht="26.5" customHeight="1">
+      <c r="B72" s="76"/>
+      <c r="C72" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="76"/>
+      <c r="E72" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
+      <c r="I72" s="76"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="76"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+    </row>
+    <row r="74" spans="2:9" ht="29">
+      <c r="B74" s="122" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+    </row>
+    <row r="75" spans="2:9" ht="25" customHeight="1">
+      <c r="B75" s="76"/>
+      <c r="C75" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="76"/>
+      <c r="E75" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" s="100"/>
+      <c r="G75" s="100"/>
+      <c r="H75" s="100"/>
+      <c r="I75" s="100"/>
+    </row>
+    <row r="76" spans="2:9" ht="25" customHeight="1">
+      <c r="B76" s="76"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="100"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+    </row>
+    <row r="78" spans="2:9" ht="23.5" customHeight="1">
+      <c r="B78" s="100"/>
+      <c r="C78" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="100"/>
+      <c r="E78" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="100"/>
+      <c r="G78" s="100"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="100"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="100"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="100"/>
+      <c r="G79" s="100"/>
+      <c r="H79" s="100"/>
+      <c r="I79" s="100"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="100"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="100"/>
+      <c r="F81" s="100"/>
+      <c r="G81" s="100"/>
+      <c r="H81" s="100"/>
+      <c r="I81" s="100"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="100"/>
+      <c r="C82" s="100"/>
+      <c r="D82" s="100"/>
+      <c r="E82" s="100"/>
+      <c r="F82" s="100"/>
+      <c r="G82" s="100"/>
+      <c r="H82" s="100"/>
+      <c r="I82" s="100"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="100"/>
+      <c r="C84" s="100"/>
+      <c r="D84" s="100"/>
+      <c r="E84" s="100"/>
+      <c r="F84" s="100"/>
+      <c r="G84" s="100"/>
+      <c r="H84" s="100"/>
+      <c r="I84" s="100"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="100"/>
+      <c r="C85" s="100"/>
+      <c r="D85" s="100"/>
+      <c r="E85" s="100"/>
+      <c r="F85" s="100"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="100"/>
+      <c r="I85" s="100"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="100"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="100"/>
+      <c r="E87" s="100"/>
+      <c r="F87" s="100"/>
+      <c r="G87" s="100"/>
+      <c r="H87" s="100"/>
+      <c r="I87" s="100"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="100"/>
+      <c r="C88" s="100"/>
+      <c r="D88" s="100"/>
+      <c r="E88" s="100"/>
+      <c r="F88" s="100"/>
+      <c r="G88" s="100"/>
+      <c r="H88" s="100"/>
+      <c r="I88" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:I49"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="H42:I43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+  <mergeCells count="200">
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:I88"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:I82"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:I85"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:I76"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:I79"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:I70"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:I73"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:I67"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:I58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="H54:I55"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:I52"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="H36:I37"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H18:I19"/>
@@ -2901,53 +3676,6 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H9:I9"/>
@@ -2955,11 +3683,34 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:I49"/>
   </mergeCells>
   <pageMargins left="0.75" right="5.09375" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProjectoSena.xlsx
+++ b/ProjectoSena.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OBJETIVOS" sheetId="2" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <t>onClick btn Get Started</t>
   </si>
   <si>
-    <t>Lo llevara a la siguinete pantalla</t>
+    <t>Lo llevara a la siguiente pantalla</t>
   </si>
   <si>
     <t>dirigir hacia pantalla 2</t>
@@ -338,7 +338,7 @@
     <t>permanece en pantalla 2</t>
   </si>
   <si>
-    <t>Consultar con BD                                           OK                                                              no OK</t>
+    <t>Consultar con BD                                   OK                                                              no OK</t>
   </si>
   <si>
     <t>INICIAR SESION    
@@ -366,13 +366,10 @@
     <t>onClick btn Iniciar sesion</t>
   </si>
   <si>
+    <t>Si no llega a tener ninguna cuenta registrada, le votara un error diciendo "cuenta no encontrada/no registrada"</t>
+  </si>
+  <si>
     <t>dirigir hacia pantalla 3</t>
-  </si>
-  <si>
-    <t>Lo llevara a la siguiente pantalla</t>
-  </si>
-  <si>
-    <t>Si no llega a tener ninguna cuenta registrada, le votara un error diciendo "registrar cuenta"</t>
   </si>
   <si>
     <t>INICIAR SESION    
@@ -454,7 +451,7 @@
     <t>onLoad (Olvide mi Contraseña)</t>
   </si>
   <si>
-    <t>mostrar pantala O2</t>
+    <t>mostrar pantalla O2</t>
   </si>
   <si>
     <t>Lo dejara ingresar un correo electronico, el cual le llegara la informacion para poder recuperar su contraseña</t>
@@ -775,6 +772,9 @@
     <t>Con este boton se soncronizara con su Google Calendar de su dispositivo, para que asi pueda tener mas presentas sus citas y no tener tanto margen de error con ellas</t>
   </si>
   <si>
+    <t>APARTADO ADMINISTRADOR</t>
+  </si>
+  <si>
     <t>onLoad (Admin Panel)</t>
   </si>
   <si>
@@ -829,6 +829,9 @@
     <t>mostrar pantalla SD2</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>onLoad Mantenimiento Electrico</t>
   </si>
   <si>
@@ -836,9 +839,6 @@
   </si>
   <si>
     <t>permanece en pantalla SD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>onLoad Instalacion de Sistemas</t>
@@ -1899,7 +1899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2009,35 +2009,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2050,46 +2027,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2290,7 +2252,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="184731" cy="283610"/>
+    <xdr:ext cx="184731" cy="291230"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -2298,8 +2260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4076700" y="605790"/>
-          <a:ext cx="184150" cy="283210"/>
+          <a:off x="4119880" y="628650"/>
+          <a:ext cx="184150" cy="290830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2365,8 +2327,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="596265"/>
-          <a:ext cx="2445385" cy="2272030"/>
+          <a:off x="9525" y="619125"/>
+          <a:ext cx="2445385" cy="2317750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2407,8 +2369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="3098165"/>
-          <a:ext cx="2530475" cy="5678805"/>
+          <a:off x="9525" y="3166745"/>
+          <a:ext cx="2459990" cy="5709285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2449,8 +2411,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8824595"/>
-          <a:ext cx="2457450" cy="4758690"/>
+          <a:off x="0" y="8923655"/>
+          <a:ext cx="2457450" cy="4834890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2491,8 +2453,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13649960"/>
-          <a:ext cx="2540635" cy="2653030"/>
+          <a:off x="0" y="13825220"/>
+          <a:ext cx="2470150" cy="2675890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2529,8 +2491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="16342995"/>
-          <a:ext cx="2546350" cy="3310890"/>
+          <a:off x="0" y="16548735"/>
+          <a:ext cx="2475865" cy="3547110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2567,8 +2529,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="19685635"/>
-          <a:ext cx="2547620" cy="3125470"/>
+          <a:off x="7620" y="20127595"/>
+          <a:ext cx="2477135" cy="3201670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2585,8 +2547,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2528570</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>353060</xdr:rowOff>
     </xdr:to>
@@ -2605,8 +2567,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="22750145"/>
-          <a:ext cx="2520950" cy="5920740"/>
+          <a:off x="7620" y="23260685"/>
+          <a:ext cx="2459355" cy="6004560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2647,8 +2609,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="28705175"/>
-          <a:ext cx="2535555" cy="3649345"/>
+          <a:off x="7620" y="29299535"/>
+          <a:ext cx="2465070" cy="3695065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2689,8 +2651,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="32348805"/>
-          <a:ext cx="2538095" cy="4679315"/>
+          <a:off x="7620" y="32988885"/>
+          <a:ext cx="2467610" cy="4740275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2731,8 +2693,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="37024945"/>
-          <a:ext cx="2545715" cy="7854315"/>
+          <a:off x="7620" y="37725985"/>
+          <a:ext cx="2475230" cy="7922895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2773,8 +2735,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="44881165"/>
-          <a:ext cx="2538730" cy="5867400"/>
+          <a:off x="7620" y="45650785"/>
+          <a:ext cx="2468245" cy="5935980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,8 +2757,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2533015</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>186</xdr:row>
       <xdr:rowOff>582930</xdr:rowOff>
     </xdr:to>
@@ -2815,8 +2777,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="51304825"/>
-          <a:ext cx="2525395" cy="4403090"/>
+          <a:off x="7620" y="52165885"/>
+          <a:ext cx="2459355" cy="4456430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2832,15 +2794,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>619760</xdr:rowOff>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>183515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2525395</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>404495</xdr:rowOff>
+      <xdr:colOff>2459990</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2857,8 +2819,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="55744745"/>
-          <a:ext cx="2517775" cy="3965575"/>
+          <a:off x="635" y="57226200"/>
+          <a:ext cx="2459355" cy="4217035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2874,15 +2836,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>404495</xdr:rowOff>
+      <xdr:colOff>21590</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2520315</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13970</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2899,8 +2861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="59710320"/>
-          <a:ext cx="2512695" cy="1665605"/>
+          <a:off x="21590" y="61418470"/>
+          <a:ext cx="2459355" cy="1688465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2916,15 +2878,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2531110</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>379095</xdr:rowOff>
+      <xdr:colOff>2459990</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>126365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2941,8 +2903,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="61353065"/>
-          <a:ext cx="2523490" cy="6284595"/>
+          <a:off x="635" y="63089155"/>
+          <a:ext cx="2459355" cy="6360795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2958,15 +2920,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>416560</xdr:rowOff>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2530475</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>123190</xdr:rowOff>
+      <xdr:colOff>2460625</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2983,8 +2945,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="67675125"/>
-          <a:ext cx="2522855" cy="4263390"/>
+          <a:off x="1270" y="69507735"/>
+          <a:ext cx="2459355" cy="4316730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3000,15 +2962,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2524760</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3025,8 +2987,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="71998205"/>
-          <a:ext cx="2517140" cy="6494780"/>
+          <a:off x="35560" y="73854945"/>
+          <a:ext cx="2459355" cy="6731000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3306,64 +3268,64 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22222222222222" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="35.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="35.7809523809524" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15"/>
+    <row r="1" ht="15.75"/>
     <row r="2" spans="2:3">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="102"/>
+      <c r="C2" s="88"/>
     </row>
     <row r="3" ht="23.1" customHeight="1" spans="2:3">
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="92"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="105"/>
-      <c r="C5" s="106"/>
-    </row>
-    <row r="6" ht="15.6" spans="2:3">
-      <c r="B6" s="107" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+    </row>
+    <row r="6" ht="15.75" spans="2:3">
+      <c r="B6" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="94" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="47.1" customHeight="1" spans="2:3">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="82" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="28.05" customHeight="1" spans="2:3">
-      <c r="B8" s="109"/>
-      <c r="C8" s="96" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="82" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="47.1" customHeight="1" spans="2:3">
-      <c r="B9" s="109"/>
-      <c r="C9" s="110" t="s">
+      <c r="B9" s="95"/>
+      <c r="C9" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:3">
-      <c r="B10" s="111"/>
-      <c r="C10" s="112" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="98" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3383,320 +3345,320 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" customWidth="1"/>
-    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="29.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="32.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="11.6" customWidth="1"/>
+    <col min="2" max="2" width="13.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="29.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="32.7809523809524" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
-    </row>
-    <row r="2" ht="15.15" spans="1:5">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
+    </row>
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-    </row>
-    <row r="4" ht="15.15" spans="1:5">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+    </row>
+    <row r="4" ht="15.75" spans="1:5">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-    </row>
-    <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:5">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
     </row>
     <row r="7" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="79" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:5">
-      <c r="A8" s="94">
+      <c r="A8" s="80">
         <v>1</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="82" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1" spans="1:5">
-      <c r="A9" s="94">
+      <c r="A9" s="80">
         <v>2</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="46.05" customHeight="1" spans="1:5">
-      <c r="A10" s="94">
+      <c r="A10" s="80">
         <v>3</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="82" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:5">
-      <c r="A11" s="94">
+      <c r="A11" s="80">
         <v>4</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="82" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" ht="32.1" customHeight="1" spans="1:5">
-      <c r="A12" s="94">
+      <c r="A12" s="80">
         <v>5</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="82" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:5">
-      <c r="A13" s="94">
+    <row r="13" ht="30" spans="1:5">
+      <c r="A13" s="80">
         <v>6</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="82" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" ht="47.1" customHeight="1" spans="1:6">
-      <c r="A14" s="94">
+      <c r="A14" s="80">
         <v>7</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="97"/>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" ht="47.1" customHeight="1" spans="1:5">
-      <c r="A15" s="94">
+      <c r="A15" s="80">
         <v>8</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="82" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:5">
-      <c r="A16" s="94">
+    <row r="16" ht="30" spans="1:5">
+      <c r="A16" s="80">
         <v>9</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="82" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" ht="28.8" spans="1:5">
-      <c r="A17" s="94">
+    <row r="17" ht="45" spans="1:5">
+      <c r="A17" s="80">
         <v>10</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="82" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" ht="44.1" customHeight="1" spans="1:5">
-      <c r="A18" s="94">
+      <c r="A18" s="80">
         <v>11</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="82" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" ht="46.05" customHeight="1" spans="1:5">
-      <c r="A19" s="94">
+      <c r="A19" s="80">
         <v>12</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="82" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" ht="28.8" spans="1:5">
-      <c r="A20" s="94">
+    <row r="20" ht="30" spans="1:5">
+      <c r="A20" s="80">
         <v>13</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="96" t="s">
+      <c r="E20" s="82" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" ht="43.95" spans="1:5">
-      <c r="A21" s="98">
+    <row r="21" ht="45.75" spans="1:5">
+      <c r="A21" s="84">
         <v>14</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="86" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3716,25 +3678,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:R250"/>
+  <dimension ref="A2:R253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="L163" sqref="L163"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22222222222222" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="27.0740740740741" customWidth="1"/>
-    <col min="3" max="3" width="26.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="23.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="27.0761904761905" customWidth="1"/>
+    <col min="3" max="3" width="26.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="23.2190476190476" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="20.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="12.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="20.7809523809524" customWidth="1"/>
+    <col min="8" max="8" width="12.7809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.15" spans="1:5">
+    <row r="2" ht="15.75" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -3743,7 +3705,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15.15" spans="1:9">
+    <row r="3" ht="15.75" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
@@ -3993,9 +3955,7 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="18" t="s">
-        <v>96</v>
-      </c>
+      <c r="E20" s="18"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="18"/>
@@ -4004,19 +3964,19 @@
     <row r="21" ht="44.1" customHeight="1" spans="2:9">
       <c r="B21" s="20"/>
       <c r="C21" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -4033,7 +3993,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -4046,17 +4006,17 @@
     <row r="24" spans="2:9">
       <c r="B24" s="14"/>
       <c r="C24" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="G24" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -4073,7 +4033,7 @@
     </row>
     <row r="26" ht="40.5" customHeight="1" spans="2:9">
       <c r="B26" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -4086,14 +4046,14 @@
     <row r="27" ht="13.5" customHeight="1" spans="2:9">
       <c r="B27" s="14"/>
       <c r="C27" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -4111,7 +4071,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -4126,7 +4086,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -4145,10 +4105,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>112</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -4161,14 +4121,14 @@
     <row r="33" spans="2:9">
       <c r="B33" s="14"/>
       <c r="C33" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -4199,14 +4159,14 @@
     <row r="36" ht="18" customHeight="1" spans="2:9">
       <c r="B36" s="14"/>
       <c r="C36" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -4237,14 +4197,14 @@
     <row r="39" ht="35.25" customHeight="1" spans="2:9">
       <c r="B39" s="14"/>
       <c r="C39" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -4262,7 +4222,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -4275,14 +4235,14 @@
     <row r="42" ht="24.75" customHeight="1" spans="2:9">
       <c r="B42" s="14"/>
       <c r="C42" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -4300,7 +4260,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -4313,7 +4273,7 @@
     <row r="45" spans="2:9">
       <c r="B45" s="14"/>
       <c r="C45" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
@@ -4336,7 +4296,7 @@
     </row>
     <row r="47" ht="33.75" customHeight="1" spans="2:9">
       <c r="B47" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4351,7 +4311,7 @@
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
@@ -4383,16 +4343,16 @@
     <row r="51" ht="31.5" customHeight="1" spans="2:9">
       <c r="B51" s="29"/>
       <c r="C51" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="E51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="F51" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -4410,7 +4370,7 @@
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
@@ -4423,7 +4383,7 @@
     <row r="54" ht="30" customHeight="1" spans="2:9">
       <c r="B54" s="14"/>
       <c r="C54" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14" t="s">
@@ -4446,7 +4406,7 @@
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4461,7 +4421,7 @@
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -4478,9 +4438,9 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" ht="30" spans="2:9">
       <c r="B59" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -4493,11 +4453,11 @@
     <row r="60" ht="31.5" customHeight="1" spans="2:9">
       <c r="B60" s="34"/>
       <c r="C60" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D60" s="34"/>
       <c r="E60" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
@@ -4516,7 +4476,7 @@
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
@@ -4529,11 +4489,11 @@
     <row r="63" ht="28.5" customHeight="1" spans="2:9">
       <c r="B63" s="29"/>
       <c r="C63" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
@@ -4552,7 +4512,7 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
@@ -4565,11 +4525,11 @@
     <row r="66" ht="22.95" customHeight="1" spans="2:9">
       <c r="B66" s="29"/>
       <c r="C66" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
@@ -4586,9 +4546,9 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" ht="28.8" spans="2:9">
+    <row r="68" ht="30" spans="2:9">
       <c r="B68" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -4603,7 +4563,7 @@
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
@@ -4622,7 +4582,7 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
@@ -4635,11 +4595,11 @@
     <row r="72" ht="26.55" customHeight="1" spans="2:9">
       <c r="B72" s="29"/>
       <c r="C72" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="29"/>
       <c r="E72" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
@@ -4656,9 +4616,9 @@
       <c r="H73" s="29"/>
       <c r="I73" s="29"/>
     </row>
-    <row r="74" ht="28.8" spans="2:9">
+    <row r="74" ht="30" spans="2:9">
       <c r="B74" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="30"/>
@@ -4671,11 +4631,11 @@
     <row r="75" ht="25.05" customHeight="1" spans="2:9">
       <c r="B75" s="29"/>
       <c r="C75" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D75" s="29"/>
       <c r="E75" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
@@ -4694,7 +4654,7 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="30"/>
       <c r="D77" s="30"/>
@@ -4707,11 +4667,11 @@
     <row r="78" ht="23.55" customHeight="1" spans="2:9">
       <c r="B78" s="14"/>
       <c r="C78" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
@@ -4730,7 +4690,7 @@
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -4745,7 +4705,7 @@
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
@@ -4764,7 +4724,7 @@
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="30"/>
       <c r="D83" s="30"/>
@@ -4777,11 +4737,11 @@
     <row r="84" ht="28" customHeight="1" spans="2:9">
       <c r="B84" s="14"/>
       <c r="C84" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
@@ -4800,7 +4760,7 @@
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="30"/>
@@ -4813,11 +4773,11 @@
     <row r="87" ht="32" customHeight="1" spans="2:9">
       <c r="B87" s="14"/>
       <c r="C87" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
@@ -4836,7 +4796,7 @@
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C89" s="39"/>
       <c r="D89" s="39"/>
@@ -4849,11 +4809,11 @@
     <row r="90" ht="38" customHeight="1" spans="2:9">
       <c r="B90" s="15"/>
       <c r="C90" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
@@ -4872,7 +4832,7 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C92" s="39"/>
       <c r="D92" s="39"/>
@@ -4885,11 +4845,11 @@
     <row r="93" ht="30" customHeight="1" spans="2:9">
       <c r="B93" s="14"/>
       <c r="C93" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
@@ -4908,7 +4868,7 @@
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C95" s="39"/>
       <c r="D95" s="39"/>
@@ -4921,11 +4881,11 @@
     <row r="96" ht="30" customHeight="1" spans="2:9">
       <c r="B96" s="15"/>
       <c r="C96" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
@@ -4957,1928 +4917,1960 @@
     </row>
     <row r="99" ht="27" customHeight="1" spans="1:9">
       <c r="A99" s="42"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
     </row>
     <row r="100" ht="31" customHeight="1" spans="1:9">
       <c r="A100" s="42"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="42"/>
-      <c r="B101" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
+      <c r="B101" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="42"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="42"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="45"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="42"/>
-      <c r="B104" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="49"/>
-      <c r="I104" s="49"/>
+      <c r="B104" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
     </row>
     <row r="105" ht="28" customHeight="1" spans="1:9">
       <c r="A105" s="42"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="44" t="s">
+      <c r="B105" s="14"/>
+      <c r="C105" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="45"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
     </row>
     <row r="106" ht="46" customHeight="1" spans="1:9">
       <c r="A106" s="42"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="45"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="42"/>
-      <c r="B107" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="49"/>
-      <c r="I107" s="49"/>
+      <c r="B107" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
     </row>
     <row r="108" ht="31" customHeight="1" spans="1:9">
       <c r="A108" s="42"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="44" t="s">
+      <c r="B108" s="14"/>
+      <c r="C108" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="45"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
     </row>
     <row r="109" ht="28" customHeight="1" spans="1:9">
       <c r="A109" s="42"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="45"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="42"/>
-      <c r="B110" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C110" s="48"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48"/>
+      <c r="B110" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
     </row>
     <row r="111" ht="39" customHeight="1" spans="1:9">
       <c r="A111" s="42"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="44" t="s">
+      <c r="B111" s="14"/>
+      <c r="C111" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D111" s="45"/>
-      <c r="E111" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="45"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
     </row>
     <row r="112" ht="30" customHeight="1" spans="1:9">
       <c r="A112" s="42"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="45"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="42"/>
-      <c r="B113" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="C113" s="46"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="50"/>
-      <c r="I113" s="53"/>
+      <c r="B113" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="37"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="42"/>
-      <c r="B114" s="45"/>
-      <c r="C114" s="45"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="F114" s="45"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="45"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="42"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="45"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="42"/>
-      <c r="B116" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="48"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="48"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="54"/>
+      <c r="B116" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="45"/>
     </row>
     <row r="117" ht="29" customHeight="1" spans="1:9">
       <c r="A117" s="42"/>
-      <c r="B117" s="45"/>
-      <c r="C117" s="44" t="s">
+      <c r="B117" s="14"/>
+      <c r="C117" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="F117" s="45"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="45"/>
-      <c r="I117" s="45"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
     </row>
     <row r="118" ht="31" customHeight="1" spans="1:9">
       <c r="A118" s="42"/>
-      <c r="B118" s="45"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="45"/>
-      <c r="I118" s="45"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="42"/>
-      <c r="B119" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C119" s="48"/>
-      <c r="D119" s="48"/>
-      <c r="E119" s="48"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="48"/>
-      <c r="H119" s="51"/>
-      <c r="I119" s="54"/>
+      <c r="B119" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="45"/>
     </row>
     <row r="120" ht="27" customHeight="1" spans="1:9">
       <c r="A120" s="42"/>
-      <c r="B120" s="45"/>
-      <c r="C120" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="D120" s="45"/>
-      <c r="E120" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F120" s="45"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="45"/>
-      <c r="I120" s="45"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
     </row>
     <row r="121" ht="35" customHeight="1" spans="1:9">
       <c r="A121" s="42"/>
-      <c r="B121" s="45"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="45"/>
-      <c r="I121" s="45"/>
-    </row>
-    <row r="122" ht="28.8" spans="1:9">
+      <c r="B121" s="14"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+    </row>
+    <row r="122" ht="30" spans="1:9">
       <c r="A122" s="42"/>
-      <c r="B122" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="C122" s="48"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="54"/>
+      <c r="B122" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="45"/>
     </row>
     <row r="123" ht="24" customHeight="1" spans="1:9">
       <c r="A123" s="42"/>
-      <c r="B123" s="45"/>
-      <c r="C123" s="44" t="s">
+      <c r="B123" s="14"/>
+      <c r="C123" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D123" s="45"/>
-      <c r="E123" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="45"/>
-      <c r="I123" s="45"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
     </row>
     <row r="124" ht="41" customHeight="1" spans="1:9">
       <c r="A124" s="42"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="45"/>
-      <c r="I124" s="45"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="42"/>
-      <c r="B125" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="C125" s="48"/>
-      <c r="D125" s="48"/>
-      <c r="E125" s="48"/>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="51"/>
-      <c r="I125" s="54"/>
+      <c r="B125" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="43"/>
+      <c r="I125" s="45"/>
     </row>
     <row r="126" ht="40" customHeight="1" spans="1:9">
       <c r="A126" s="42"/>
-      <c r="B126" s="45"/>
-      <c r="C126" s="44" t="s">
+      <c r="B126" s="14"/>
+      <c r="C126" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D126" s="45"/>
-      <c r="E126" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="F126" s="45"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="45"/>
-      <c r="I126" s="45"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
     </row>
     <row r="127" ht="24" customHeight="1" spans="1:9">
       <c r="A127" s="42"/>
-      <c r="B127" s="45"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="45"/>
-      <c r="E127" s="45"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="45"/>
-      <c r="I127" s="45"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="42"/>
-      <c r="B128" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="C128" s="46"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="46"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="50"/>
-      <c r="I128" s="53"/>
+      <c r="B128" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="37"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="42"/>
-      <c r="B129" s="44"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="44"/>
-      <c r="I129" s="44"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="42"/>
-      <c r="B130" s="44"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="44"/>
-      <c r="I130" s="44"/>
-    </row>
-    <row r="131" ht="15" customHeight="1" spans="1:9">
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:9">
       <c r="A131" s="42"/>
-      <c r="B131" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="C131" s="55"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="55"/>
-      <c r="F131" s="55"/>
-      <c r="G131" s="55"/>
-      <c r="H131" s="56"/>
-      <c r="I131" s="68"/>
+      <c r="B131" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C131" s="46"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="46"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="53"/>
     </row>
     <row r="132" ht="32" customHeight="1" spans="1:9">
       <c r="A132" s="42"/>
-      <c r="B132" s="44"/>
-      <c r="C132" s="44" t="s">
+      <c r="B132" s="15"/>
+      <c r="C132" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="44"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
     </row>
     <row r="133" ht="32" customHeight="1" spans="1:9">
       <c r="A133" s="42"/>
-      <c r="B133" s="44"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="44"/>
-      <c r="I133" s="44"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="42"/>
-      <c r="B134" s="55" t="s">
+      <c r="B134" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C134" s="55"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="55"/>
-      <c r="H134" s="56"/>
-      <c r="I134" s="68"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="46"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="53"/>
     </row>
     <row r="135" ht="32" customHeight="1" spans="1:9">
       <c r="A135" s="42"/>
-      <c r="B135" s="44"/>
-      <c r="C135" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="D135" s="44"/>
-      <c r="E135" s="44" t="s">
+      <c r="B135" s="15"/>
+      <c r="C135" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="44"/>
-      <c r="I135" s="44"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
     </row>
     <row r="136" ht="28" customHeight="1" spans="1:9">
       <c r="A136" s="42"/>
-      <c r="B136" s="44"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="44"/>
-      <c r="I136" s="44"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="42"/>
-      <c r="B137" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="C137" s="55"/>
-      <c r="D137" s="55"/>
-      <c r="E137" s="55"/>
-      <c r="F137" s="55"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="56"/>
-      <c r="I137" s="68"/>
+      <c r="B137" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C137" s="46"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="46"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="53"/>
     </row>
     <row r="138" ht="37" customHeight="1" spans="1:9">
       <c r="A138" s="42"/>
-      <c r="B138" s="44"/>
-      <c r="C138" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="D138" s="44"/>
-      <c r="E138" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="44"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
     </row>
     <row r="139" ht="33" customHeight="1" spans="1:9">
       <c r="A139" s="42"/>
-      <c r="B139" s="44"/>
-      <c r="C139" s="44"/>
-      <c r="D139" s="44"/>
-      <c r="E139" s="44"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="44"/>
-      <c r="I139" s="44"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="42"/>
-      <c r="B140" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="C140" s="55"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="55"/>
-      <c r="F140" s="55"/>
-      <c r="G140" s="55"/>
-      <c r="H140" s="56"/>
-      <c r="I140" s="68"/>
+      <c r="B140" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="47"/>
+      <c r="I140" s="53"/>
     </row>
     <row r="141" ht="38" customHeight="1" spans="1:9">
       <c r="A141" s="42"/>
-      <c r="B141" s="44"/>
-      <c r="C141" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="D141" s="44"/>
-      <c r="E141" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F141" s="44"/>
-      <c r="G141" s="44"/>
-      <c r="H141" s="44"/>
-      <c r="I141" s="44"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
     </row>
     <row r="142" ht="36" customHeight="1" spans="1:9">
       <c r="A142" s="42"/>
-      <c r="B142" s="44"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="44"/>
-      <c r="E142" s="44"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="44"/>
-      <c r="I142" s="44"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="42"/>
-      <c r="B143" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="C143" s="52"/>
-      <c r="D143" s="52"/>
-      <c r="E143" s="52"/>
-      <c r="F143" s="52"/>
-      <c r="G143" s="52"/>
-      <c r="H143" s="57"/>
-      <c r="I143" s="69"/>
+      <c r="B143" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C143" s="44"/>
+      <c r="D143" s="44"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="48"/>
+      <c r="I143" s="54"/>
     </row>
     <row r="144" ht="33" customHeight="1" spans="1:9">
       <c r="A144" s="42"/>
-      <c r="B144" s="44"/>
-      <c r="C144" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="D144" s="44"/>
-      <c r="E144" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F144" s="44"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="44"/>
-      <c r="I144" s="44"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
     </row>
     <row r="145" ht="41" customHeight="1" spans="1:9">
       <c r="A145" s="42"/>
-      <c r="B145" s="44"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="44"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="44"/>
-      <c r="I145" s="44"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="42"/>
-      <c r="B146" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="C146" s="52"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52"/>
-      <c r="F146" s="52"/>
-      <c r="G146" s="52"/>
-      <c r="H146" s="57"/>
-      <c r="I146" s="69"/>
+      <c r="B146" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="48"/>
+      <c r="I146" s="54"/>
     </row>
     <row r="147" ht="34" customHeight="1" spans="1:9">
       <c r="A147" s="42"/>
-      <c r="B147" s="44"/>
-      <c r="C147" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="D147" s="44"/>
-      <c r="E147" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F147" s="44"/>
-      <c r="G147" s="44"/>
-      <c r="H147" s="44"/>
-      <c r="I147" s="44"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
     </row>
     <row r="148" ht="47" customHeight="1" spans="1:9">
       <c r="A148" s="42"/>
-      <c r="B148" s="44"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="44"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="44"/>
-      <c r="I148" s="44"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="42"/>
-      <c r="B149" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="C149" s="52"/>
-      <c r="D149" s="52"/>
-      <c r="E149" s="52"/>
-      <c r="F149" s="52"/>
-      <c r="G149" s="52"/>
-      <c r="H149" s="57"/>
-      <c r="I149" s="69"/>
+      <c r="B149" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="48"/>
+      <c r="I149" s="54"/>
     </row>
     <row r="150" ht="28" customHeight="1" spans="1:9">
       <c r="A150" s="42"/>
-      <c r="B150" s="45"/>
-      <c r="C150" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="45"/>
-      <c r="I150" s="45"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
     </row>
     <row r="151" ht="23" customHeight="1" spans="1:9">
       <c r="A151" s="42"/>
-      <c r="B151" s="45"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="45"/>
-      <c r="E151" s="45"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="45"/>
-      <c r="H151" s="45"/>
-      <c r="I151" s="45"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="42"/>
-      <c r="B152" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="C152" s="46"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="46"/>
-      <c r="F152" s="46"/>
-      <c r="G152" s="46"/>
-      <c r="H152" s="50"/>
-      <c r="I152" s="53"/>
+      <c r="B152" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="37"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="42"/>
-      <c r="B153" s="58"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="58"/>
-      <c r="E153" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F153" s="58"/>
-      <c r="G153" s="58"/>
-      <c r="H153" s="58"/>
-      <c r="I153" s="58"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="42"/>
-      <c r="B154" s="58"/>
-      <c r="C154" s="58"/>
-      <c r="D154" s="58"/>
-      <c r="E154" s="58"/>
-      <c r="F154" s="58"/>
-      <c r="G154" s="58"/>
-      <c r="H154" s="58"/>
-      <c r="I154" s="58"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="42"/>
-      <c r="B155" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="C155" s="48"/>
-      <c r="D155" s="48"/>
-      <c r="E155" s="48"/>
-      <c r="F155" s="48"/>
-      <c r="G155" s="48"/>
-      <c r="H155" s="51"/>
-      <c r="I155" s="54"/>
+      <c r="B155" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C155" s="39"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="39"/>
+      <c r="F155" s="39"/>
+      <c r="G155" s="39"/>
+      <c r="H155" s="43"/>
+      <c r="I155" s="45"/>
     </row>
     <row r="156" ht="35" customHeight="1" spans="1:9">
       <c r="A156" s="42"/>
-      <c r="B156" s="59"/>
-      <c r="C156" s="59" t="s">
+      <c r="B156" s="15"/>
+      <c r="C156" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D156" s="59"/>
-      <c r="E156" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="F156" s="59"/>
-      <c r="G156" s="59"/>
-      <c r="H156" s="59"/>
-      <c r="I156" s="59"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
     </row>
     <row r="157" ht="37" customHeight="1" spans="1:9">
       <c r="A157" s="42"/>
-      <c r="B157" s="59"/>
-      <c r="C157" s="59"/>
-      <c r="D157" s="59"/>
-      <c r="E157" s="59"/>
-      <c r="F157" s="59"/>
-      <c r="G157" s="59"/>
-      <c r="H157" s="59"/>
-      <c r="I157" s="59"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="42"/>
-      <c r="B158" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="C158" s="48"/>
-      <c r="D158" s="48"/>
-      <c r="E158" s="48"/>
-      <c r="F158" s="48"/>
-      <c r="G158" s="48"/>
-      <c r="H158" s="51"/>
-      <c r="I158" s="54"/>
+      <c r="B158" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C158" s="39"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="39"/>
+      <c r="F158" s="39"/>
+      <c r="G158" s="39"/>
+      <c r="H158" s="43"/>
+      <c r="I158" s="45"/>
     </row>
     <row r="159" ht="30" customHeight="1" spans="1:9">
       <c r="A159" s="42"/>
-      <c r="B159" s="59"/>
-      <c r="C159" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="D159" s="59"/>
-      <c r="E159" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="F159" s="59"/>
-      <c r="G159" s="59"/>
-      <c r="H159" s="59"/>
-      <c r="I159" s="59"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
     </row>
     <row r="160" ht="18" customHeight="1" spans="1:9">
       <c r="A160" s="42"/>
-      <c r="B160" s="59"/>
-      <c r="C160" s="59"/>
-      <c r="D160" s="59"/>
-      <c r="E160" s="59"/>
-      <c r="F160" s="59"/>
-      <c r="G160" s="59"/>
-      <c r="H160" s="59"/>
-      <c r="I160" s="59"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="42"/>
-      <c r="B161" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="C161" s="48"/>
-      <c r="D161" s="48"/>
-      <c r="E161" s="48"/>
-      <c r="F161" s="48"/>
-      <c r="G161" s="48"/>
-      <c r="H161" s="51"/>
-      <c r="I161" s="54"/>
+      <c r="B161" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="39"/>
+      <c r="G161" s="39"/>
+      <c r="H161" s="43"/>
+      <c r="I161" s="45"/>
     </row>
     <row r="162" ht="23" customHeight="1" spans="1:9">
       <c r="A162" s="42"/>
-      <c r="B162" s="59"/>
-      <c r="C162" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="D162" s="59"/>
-      <c r="E162" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="F162" s="59"/>
-      <c r="G162" s="59"/>
-      <c r="H162" s="59"/>
-      <c r="I162" s="59"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
     </row>
     <row r="163" ht="23" customHeight="1" spans="1:9">
       <c r="A163" s="42"/>
-      <c r="B163" s="59"/>
-      <c r="C163" s="59"/>
-      <c r="D163" s="59"/>
-      <c r="E163" s="59"/>
-      <c r="F163" s="59"/>
-      <c r="G163" s="59"/>
-      <c r="H163" s="59"/>
-      <c r="I163" s="59"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="42"/>
-      <c r="B164" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="C164" s="48"/>
-      <c r="D164" s="48"/>
-      <c r="E164" s="48"/>
-      <c r="F164" s="48"/>
-      <c r="G164" s="48"/>
-      <c r="H164" s="51"/>
-      <c r="I164" s="54"/>
+      <c r="B164" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C164" s="39"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="39"/>
+      <c r="F164" s="39"/>
+      <c r="G164" s="39"/>
+      <c r="H164" s="43"/>
+      <c r="I164" s="45"/>
     </row>
     <row r="165" ht="24" customHeight="1" spans="1:9">
       <c r="A165" s="42"/>
-      <c r="B165" s="59"/>
-      <c r="C165" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="D165" s="59"/>
-      <c r="E165" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="F165" s="59"/>
-      <c r="G165" s="59"/>
-      <c r="H165" s="59"/>
-      <c r="I165" s="59"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
     </row>
     <row r="166" ht="25" customHeight="1" spans="1:9">
       <c r="A166" s="42"/>
-      <c r="B166" s="59"/>
-      <c r="C166" s="59"/>
-      <c r="D166" s="59"/>
-      <c r="E166" s="59"/>
-      <c r="F166" s="59"/>
-      <c r="G166" s="59"/>
-      <c r="H166" s="59"/>
-      <c r="I166" s="59"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="42"/>
-      <c r="B167" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="C167" s="48"/>
-      <c r="D167" s="48"/>
-      <c r="E167" s="48"/>
-      <c r="F167" s="48"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="51"/>
-      <c r="I167" s="54"/>
+      <c r="B167" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C167" s="39"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="39"/>
+      <c r="G167" s="39"/>
+      <c r="H167" s="43"/>
+      <c r="I167" s="45"/>
     </row>
     <row r="168" ht="28" customHeight="1" spans="1:9">
       <c r="A168" s="42"/>
-      <c r="B168" s="59"/>
-      <c r="C168" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="D168" s="59"/>
-      <c r="E168" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="F168" s="59"/>
-      <c r="G168" s="59"/>
-      <c r="H168" s="59"/>
-      <c r="I168" s="59"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
     </row>
     <row r="169" ht="31" customHeight="1" spans="1:9">
       <c r="A169" s="42"/>
-      <c r="B169" s="59"/>
-      <c r="C169" s="59"/>
-      <c r="D169" s="59"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="59"/>
-      <c r="H169" s="59"/>
-      <c r="I169" s="59"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="42"/>
-      <c r="B170" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="C170" s="48"/>
-      <c r="D170" s="48"/>
-      <c r="E170" s="48"/>
-      <c r="F170" s="48"/>
-      <c r="G170" s="48"/>
-      <c r="H170" s="51"/>
-      <c r="I170" s="54"/>
+      <c r="B170" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C170" s="39"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="39"/>
+      <c r="F170" s="39"/>
+      <c r="G170" s="39"/>
+      <c r="H170" s="43"/>
+      <c r="I170" s="45"/>
     </row>
     <row r="171" ht="30" customHeight="1" spans="1:9">
       <c r="A171" s="42"/>
-      <c r="B171" s="59"/>
-      <c r="C171" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="59"/>
-      <c r="H171" s="59"/>
-      <c r="I171" s="59"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
     </row>
     <row r="172" ht="29" customHeight="1" spans="1:9">
       <c r="A172" s="42"/>
-      <c r="B172" s="59"/>
-      <c r="C172" s="59"/>
-      <c r="D172" s="59"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="59"/>
-      <c r="G172" s="59"/>
-      <c r="H172" s="59"/>
-      <c r="I172" s="59"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="B173" s="61"/>
-      <c r="C173" s="61"/>
-      <c r="D173" s="61"/>
-      <c r="E173" s="61"/>
-      <c r="F173" s="61"/>
-      <c r="G173" s="61"/>
-      <c r="H173" s="61"/>
-      <c r="I173" s="61"/>
+      <c r="A173" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B173" s="50"/>
+      <c r="C173" s="50"/>
+      <c r="D173" s="50"/>
+      <c r="E173" s="50"/>
+      <c r="F173" s="50"/>
+      <c r="G173" s="50"/>
+      <c r="H173" s="50"/>
+      <c r="I173" s="50"/>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="61"/>
-      <c r="B174" s="61"/>
-      <c r="C174" s="61"/>
-      <c r="D174" s="61"/>
-      <c r="E174" s="61"/>
-      <c r="F174" s="61"/>
-      <c r="G174" s="61"/>
-      <c r="H174" s="61"/>
-      <c r="I174" s="61"/>
+      <c r="A174" s="50"/>
+      <c r="B174" s="50"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="50"/>
+      <c r="E174" s="50"/>
+      <c r="F174" s="50"/>
+      <c r="G174" s="50"/>
+      <c r="H174" s="50"/>
+      <c r="I174" s="50"/>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="61"/>
-      <c r="B175" s="61"/>
-      <c r="C175" s="61"/>
-      <c r="D175" s="61"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="61"/>
-      <c r="G175" s="61"/>
-      <c r="H175" s="61"/>
-      <c r="I175" s="61"/>
+      <c r="A175" s="50"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="50"/>
+      <c r="E175" s="50"/>
+      <c r="F175" s="50"/>
+      <c r="G175" s="50"/>
+      <c r="H175" s="50"/>
+      <c r="I175" s="50"/>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="42"/>
-      <c r="B176" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="C176" s="46"/>
-      <c r="D176" s="46"/>
-      <c r="E176" s="46"/>
-      <c r="F176" s="46"/>
-      <c r="G176" s="46"/>
-      <c r="H176" s="50"/>
-      <c r="I176" s="53"/>
+      <c r="B176" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="37"/>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="42"/>
-      <c r="B177" s="59"/>
-      <c r="C177" s="59"/>
-      <c r="D177" s="59"/>
-      <c r="E177" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="F177" s="59"/>
-      <c r="G177" s="59"/>
-      <c r="H177" s="59"/>
-      <c r="I177" s="59"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="42"/>
-      <c r="B178" s="59"/>
-      <c r="C178" s="59"/>
-      <c r="D178" s="59"/>
-      <c r="E178" s="59"/>
-      <c r="F178" s="59"/>
-      <c r="G178" s="59"/>
-      <c r="H178" s="59"/>
-      <c r="I178" s="59"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="42"/>
-      <c r="B179" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="C179" s="62"/>
-      <c r="D179" s="62"/>
-      <c r="E179" s="62"/>
-      <c r="F179" s="62"/>
-      <c r="G179" s="62"/>
-      <c r="H179" s="63"/>
-      <c r="I179" s="70"/>
+      <c r="B179" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="C179" s="46"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="46"/>
+      <c r="F179" s="46"/>
+      <c r="G179" s="46"/>
+      <c r="H179" s="47"/>
+      <c r="I179" s="53"/>
     </row>
     <row r="180" ht="22" customHeight="1" spans="1:9">
       <c r="A180" s="42"/>
-      <c r="B180" s="59"/>
-      <c r="C180" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="D180" s="59"/>
-      <c r="E180" s="59"/>
-      <c r="F180" s="59"/>
-      <c r="G180" s="59"/>
-      <c r="H180" s="59"/>
-      <c r="I180" s="59"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
     </row>
     <row r="181" ht="33" customHeight="1" spans="1:9">
       <c r="A181" s="42"/>
-      <c r="B181" s="59"/>
-      <c r="C181" s="59"/>
-      <c r="D181" s="59"/>
-      <c r="E181" s="59"/>
-      <c r="F181" s="59"/>
-      <c r="G181" s="59"/>
-      <c r="H181" s="59"/>
-      <c r="I181" s="59"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="42"/>
-      <c r="B182" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="C182" s="62"/>
-      <c r="D182" s="62"/>
-      <c r="E182" s="62"/>
-      <c r="F182" s="62"/>
-      <c r="G182" s="62"/>
-      <c r="H182" s="63"/>
-      <c r="I182" s="70"/>
+      <c r="B182" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C182" s="46"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="46"/>
+      <c r="F182" s="46"/>
+      <c r="G182" s="46"/>
+      <c r="H182" s="47"/>
+      <c r="I182" s="53"/>
     </row>
     <row r="183" ht="40" customHeight="1" spans="1:9">
       <c r="A183" s="42"/>
-      <c r="B183" s="59"/>
-      <c r="C183" s="59" t="s">
+      <c r="B183" s="15"/>
+      <c r="C183" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D183" s="59"/>
-      <c r="E183" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F183" s="59"/>
-      <c r="G183" s="59"/>
-      <c r="H183" s="59"/>
-      <c r="I183" s="59"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
     </row>
     <row r="184" ht="51" customHeight="1" spans="1:9">
       <c r="A184" s="42"/>
-      <c r="B184" s="59"/>
-      <c r="C184" s="59"/>
-      <c r="D184" s="59"/>
-      <c r="E184" s="59"/>
-      <c r="F184" s="59"/>
-      <c r="G184" s="59"/>
-      <c r="H184" s="59"/>
-      <c r="I184" s="59"/>
-    </row>
-    <row r="185" ht="28.8" spans="1:9">
+      <c r="B184" s="15"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+    </row>
+    <row r="185" ht="30" spans="1:9">
       <c r="A185" s="42"/>
-      <c r="B185" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="C185" s="62"/>
-      <c r="D185" s="62"/>
-      <c r="E185" s="62"/>
-      <c r="F185" s="62"/>
-      <c r="G185" s="62"/>
-      <c r="H185" s="63"/>
-      <c r="I185" s="70"/>
+      <c r="B185" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C185" s="46"/>
+      <c r="D185" s="46"/>
+      <c r="E185" s="46"/>
+      <c r="F185" s="46"/>
+      <c r="G185" s="46"/>
+      <c r="H185" s="47"/>
+      <c r="I185" s="53"/>
     </row>
     <row r="186" ht="54" customHeight="1" spans="1:9">
       <c r="A186" s="42"/>
-      <c r="B186" s="59"/>
-      <c r="C186" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="D186" s="59"/>
-      <c r="E186" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F186" s="59"/>
-      <c r="G186" s="59"/>
-      <c r="H186" s="59"/>
-      <c r="I186" s="59"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
     </row>
     <row r="187" ht="49" customHeight="1" spans="1:9">
       <c r="A187" s="42"/>
-      <c r="B187" s="59"/>
-      <c r="C187" s="59"/>
-      <c r="D187" s="59"/>
-      <c r="E187" s="59"/>
-      <c r="F187" s="59"/>
-      <c r="G187" s="59"/>
-      <c r="H187" s="59"/>
-      <c r="I187" s="59"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="42"/>
-      <c r="B188" s="64" t="s">
+      <c r="A188" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B188" s="50"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="50"/>
+      <c r="G188" s="50"/>
+      <c r="H188" s="50"/>
+      <c r="I188" s="50"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="50"/>
+      <c r="B189" s="50"/>
+      <c r="C189" s="50"/>
+      <c r="D189" s="50"/>
+      <c r="E189" s="50"/>
+      <c r="F189" s="50"/>
+      <c r="G189" s="50"/>
+      <c r="H189" s="50"/>
+      <c r="I189" s="50"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="50"/>
+      <c r="B190" s="50"/>
+      <c r="C190" s="50"/>
+      <c r="D190" s="50"/>
+      <c r="E190" s="50"/>
+      <c r="F190" s="50"/>
+      <c r="G190" s="50"/>
+      <c r="H190" s="50"/>
+      <c r="I190" s="50"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="42"/>
+      <c r="B191" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="C188" s="64"/>
-      <c r="D188" s="64"/>
-      <c r="E188" s="64"/>
-      <c r="F188" s="64"/>
-      <c r="G188" s="64"/>
-      <c r="H188" s="65"/>
-      <c r="I188" s="71"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="42"/>
-      <c r="B189" s="58"/>
-      <c r="C189" s="58"/>
-      <c r="D189" s="58"/>
-      <c r="E189" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="F189" s="58"/>
-      <c r="G189" s="58"/>
-      <c r="H189" s="58"/>
-      <c r="I189" s="58"/>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="42"/>
-      <c r="B190" s="58"/>
-      <c r="C190" s="58"/>
-      <c r="D190" s="58"/>
-      <c r="E190" s="58"/>
-      <c r="F190" s="58"/>
-      <c r="G190" s="58"/>
-      <c r="H190" s="58"/>
-      <c r="I190" s="58"/>
-    </row>
-    <row r="191" ht="28.8" spans="1:9">
-      <c r="A191" s="42"/>
-      <c r="B191" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="C191" s="66"/>
-      <c r="D191" s="66"/>
-      <c r="E191" s="66"/>
-      <c r="F191" s="66"/>
-      <c r="G191" s="66"/>
-      <c r="H191" s="67"/>
-      <c r="I191" s="72"/>
+      <c r="C191" s="51"/>
+      <c r="D191" s="51"/>
+      <c r="E191" s="51"/>
+      <c r="F191" s="51"/>
+      <c r="G191" s="51"/>
+      <c r="H191" s="52"/>
+      <c r="I191" s="55"/>
     </row>
     <row r="192" ht="42" customHeight="1" spans="1:9">
       <c r="A192" s="42"/>
-      <c r="B192" s="59"/>
-      <c r="C192" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="D192" s="59"/>
-      <c r="E192" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="F192" s="59"/>
-      <c r="G192" s="59"/>
-      <c r="H192" s="59"/>
-      <c r="I192" s="59"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="14"/>
     </row>
     <row r="193" ht="33" customHeight="1" spans="1:9">
       <c r="A193" s="42"/>
-      <c r="B193" s="59"/>
-      <c r="C193" s="59"/>
-      <c r="D193" s="59"/>
-      <c r="E193" s="59"/>
-      <c r="F193" s="59"/>
-      <c r="G193" s="59"/>
-      <c r="H193" s="59"/>
-      <c r="I193" s="59"/>
-    </row>
-    <row r="194" ht="28.8" spans="1:9">
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="14"/>
+    </row>
+    <row r="194" ht="30" spans="1:9">
       <c r="A194" s="42"/>
-      <c r="B194" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="C194" s="66"/>
-      <c r="D194" s="66"/>
-      <c r="E194" s="66"/>
-      <c r="F194" s="66"/>
-      <c r="G194" s="66"/>
-      <c r="H194" s="67"/>
-      <c r="I194" s="72"/>
+      <c r="B194" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C194" s="56"/>
+      <c r="D194" s="56"/>
+      <c r="E194" s="56"/>
+      <c r="F194" s="56"/>
+      <c r="G194" s="56"/>
+      <c r="H194" s="57"/>
+      <c r="I194" s="58"/>
     </row>
     <row r="195" ht="34" customHeight="1" spans="1:9">
       <c r="A195" s="42"/>
-      <c r="B195" s="59"/>
-      <c r="C195" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="D195" s="59"/>
-      <c r="E195" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="F195" s="59"/>
-      <c r="G195" s="59"/>
-      <c r="H195" s="59"/>
-      <c r="I195" s="59"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F195" s="15"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
+      <c r="I195" s="15"/>
     </row>
     <row r="196" ht="25" customHeight="1" spans="1:9">
       <c r="A196" s="42"/>
-      <c r="B196" s="59"/>
-      <c r="C196" s="59"/>
-      <c r="D196" s="59"/>
-      <c r="E196" s="59"/>
-      <c r="F196" s="59"/>
-      <c r="G196" s="59"/>
-      <c r="H196" s="59"/>
-      <c r="I196" s="59"/>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="B196" s="15"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="15"/>
+    </row>
+    <row r="197" ht="30" spans="1:9">
       <c r="A197" s="42"/>
-      <c r="B197" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="C197" s="66"/>
-      <c r="D197" s="66"/>
-      <c r="E197" s="66"/>
-      <c r="F197" s="66"/>
-      <c r="G197" s="66"/>
-      <c r="H197" s="67"/>
-      <c r="I197" s="72"/>
+      <c r="B197" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C197" s="56"/>
+      <c r="D197" s="56"/>
+      <c r="E197" s="56"/>
+      <c r="F197" s="56"/>
+      <c r="G197" s="56"/>
+      <c r="H197" s="57"/>
+      <c r="I197" s="58"/>
     </row>
     <row r="198" ht="31" customHeight="1" spans="1:9">
       <c r="A198" s="42"/>
-      <c r="B198" s="59"/>
-      <c r="C198" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="D198" s="59"/>
-      <c r="E198" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="F198" s="59"/>
-      <c r="G198" s="59"/>
-      <c r="H198" s="59"/>
-      <c r="I198" s="59"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F198" s="15"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="15"/>
+      <c r="I198" s="15"/>
     </row>
     <row r="199" ht="32" customHeight="1" spans="1:9">
       <c r="A199" s="42"/>
-      <c r="B199" s="59"/>
-      <c r="C199" s="59"/>
-      <c r="D199" s="59"/>
-      <c r="E199" s="59"/>
-      <c r="F199" s="59"/>
-      <c r="G199" s="59"/>
-      <c r="H199" s="59"/>
-      <c r="I199" s="59"/>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="B199" s="15"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="15"/>
+    </row>
+    <row r="200" ht="30" spans="1:9">
       <c r="A200" s="42"/>
-      <c r="B200" s="64" t="s">
-        <v>242</v>
-      </c>
-      <c r="C200" s="64"/>
-      <c r="D200" s="64"/>
-      <c r="E200" s="64"/>
-      <c r="F200" s="64"/>
-      <c r="G200" s="64"/>
-      <c r="H200" s="65"/>
-      <c r="I200" s="71"/>
+      <c r="B200" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C200" s="56"/>
+      <c r="D200" s="56"/>
+      <c r="E200" s="56"/>
+      <c r="F200" s="56"/>
+      <c r="G200" s="56"/>
+      <c r="H200" s="57"/>
+      <c r="I200" s="58"/>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="42"/>
-      <c r="B201" s="59"/>
-      <c r="C201" s="59"/>
-      <c r="D201" s="59"/>
-      <c r="E201" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="F201" s="59"/>
-      <c r="G201" s="59"/>
-      <c r="H201" s="59"/>
-      <c r="I201" s="59"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+      <c r="I201" s="15"/>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="42"/>
-      <c r="B202" s="59"/>
-      <c r="C202" s="59"/>
-      <c r="D202" s="59"/>
-      <c r="E202" s="59"/>
-      <c r="F202" s="59"/>
-      <c r="G202" s="59"/>
-      <c r="H202" s="59"/>
-      <c r="I202" s="59"/>
+      <c r="B202" s="15"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="15"/>
+      <c r="I202" s="15"/>
     </row>
     <row r="203" ht="31" customHeight="1" spans="1:9">
       <c r="A203" s="42"/>
-      <c r="B203" s="66" t="s">
-        <v>244</v>
-      </c>
-      <c r="C203" s="66"/>
-      <c r="D203" s="66"/>
-      <c r="E203" s="66"/>
-      <c r="F203" s="66"/>
-      <c r="G203" s="66"/>
-      <c r="H203" s="67"/>
-      <c r="I203" s="72"/>
+      <c r="B203" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C203" s="51"/>
+      <c r="D203" s="51"/>
+      <c r="E203" s="51"/>
+      <c r="F203" s="51"/>
+      <c r="G203" s="51"/>
+      <c r="H203" s="52"/>
+      <c r="I203" s="55"/>
     </row>
     <row r="204" ht="29" customHeight="1" spans="1:9">
       <c r="A204" s="42"/>
-      <c r="B204" s="59"/>
-      <c r="C204" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="D204" s="59"/>
-      <c r="E204" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="F204" s="59"/>
-      <c r="G204" s="59"/>
-      <c r="H204" s="59"/>
-      <c r="I204" s="59"/>
+      <c r="B204" s="15"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
+      <c r="I204" s="15"/>
     </row>
     <row r="205" ht="26" customHeight="1" spans="1:9">
       <c r="A205" s="42"/>
-      <c r="B205" s="59"/>
-      <c r="C205" s="59"/>
-      <c r="D205" s="59"/>
-      <c r="E205" s="59"/>
-      <c r="F205" s="59"/>
-      <c r="G205" s="59"/>
-      <c r="H205" s="59"/>
-      <c r="I205" s="59"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="15"/>
+      <c r="I205" s="15"/>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="42"/>
-      <c r="B206" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="C206" s="64"/>
-      <c r="D206" s="64"/>
-      <c r="E206" s="64"/>
-      <c r="F206" s="64"/>
-      <c r="G206" s="64"/>
-      <c r="H206" s="65"/>
-      <c r="I206" s="71"/>
+      <c r="B206" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C206" s="56"/>
+      <c r="D206" s="56"/>
+      <c r="E206" s="56"/>
+      <c r="F206" s="56"/>
+      <c r="G206" s="56"/>
+      <c r="H206" s="57"/>
+      <c r="I206" s="58"/>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="42"/>
-      <c r="B207" s="59"/>
-      <c r="C207" s="59"/>
-      <c r="D207" s="59"/>
-      <c r="E207" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="F207" s="59"/>
-      <c r="G207" s="59"/>
-      <c r="H207" s="59"/>
-      <c r="I207" s="59"/>
+      <c r="B207" s="15"/>
+      <c r="C207" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="15"/>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="42"/>
-      <c r="B208" s="59"/>
-      <c r="C208" s="59"/>
-      <c r="D208" s="59"/>
-      <c r="E208" s="59"/>
-      <c r="F208" s="59"/>
-      <c r="G208" s="59"/>
-      <c r="H208" s="59"/>
-      <c r="I208" s="59"/>
-    </row>
-    <row r="209" ht="28.8" spans="1:9">
+      <c r="B208" s="15"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
+      <c r="I208" s="15"/>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="42"/>
-      <c r="B209" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="C209" s="66"/>
-      <c r="D209" s="66"/>
-      <c r="E209" s="66"/>
-      <c r="F209" s="66"/>
-      <c r="G209" s="66"/>
-      <c r="H209" s="67"/>
-      <c r="I209" s="72"/>
+      <c r="B209" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C209" s="51"/>
+      <c r="D209" s="51"/>
+      <c r="E209" s="51"/>
+      <c r="F209" s="51"/>
+      <c r="G209" s="51"/>
+      <c r="H209" s="52"/>
+      <c r="I209" s="55"/>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="42"/>
-      <c r="B210" s="59"/>
-      <c r="C210" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="D210" s="59"/>
-      <c r="E210" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="F210" s="59"/>
-      <c r="G210" s="59"/>
-      <c r="H210" s="59"/>
-      <c r="I210" s="59"/>
+      <c r="B210" s="15"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="15"/>
     </row>
     <row r="211" spans="1:18">
       <c r="A211" s="42"/>
-      <c r="B211" s="59"/>
-      <c r="C211" s="59"/>
-      <c r="D211" s="59"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="59"/>
-      <c r="G211" s="59"/>
-      <c r="H211" s="59"/>
-      <c r="I211" s="59"/>
+      <c r="B211" s="15"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
+      <c r="I211" s="15"/>
       <c r="R211" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="212" ht="34" customHeight="1" spans="1:9">
       <c r="A212" s="42"/>
-      <c r="B212" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="C212" s="66"/>
-      <c r="D212" s="66"/>
-      <c r="E212" s="66"/>
-      <c r="F212" s="66"/>
-      <c r="G212" s="66"/>
-      <c r="H212" s="67"/>
-      <c r="I212" s="72"/>
+      <c r="B212" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C212" s="56"/>
+      <c r="D212" s="56"/>
+      <c r="E212" s="56"/>
+      <c r="F212" s="56"/>
+      <c r="G212" s="56"/>
+      <c r="H212" s="57"/>
+      <c r="I212" s="58"/>
     </row>
     <row r="213" ht="39" customHeight="1" spans="1:9">
       <c r="A213" s="42"/>
-      <c r="B213" s="59"/>
-      <c r="C213" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="D213" s="59"/>
-      <c r="E213" s="59" t="s">
+      <c r="B213" s="15"/>
+      <c r="C213" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="F213" s="59"/>
-      <c r="G213" s="59"/>
-      <c r="H213" s="59"/>
-      <c r="I213" s="59"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F213" s="15"/>
+      <c r="G213" s="15"/>
+      <c r="H213" s="15"/>
+      <c r="I213" s="15"/>
     </row>
     <row r="214" ht="33" customHeight="1" spans="1:9">
       <c r="A214" s="42"/>
-      <c r="B214" s="59"/>
-      <c r="C214" s="59"/>
-      <c r="D214" s="59"/>
-      <c r="E214" s="59"/>
-      <c r="F214" s="59"/>
-      <c r="G214" s="59"/>
-      <c r="H214" s="59"/>
-      <c r="I214" s="59"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="15"/>
+      <c r="I214" s="15"/>
     </row>
     <row r="215" ht="35" customHeight="1" spans="1:9">
       <c r="A215" s="42"/>
-      <c r="B215" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="C215" s="66"/>
-      <c r="D215" s="66"/>
-      <c r="E215" s="66"/>
-      <c r="F215" s="66"/>
-      <c r="G215" s="66"/>
-      <c r="H215" s="67"/>
-      <c r="I215" s="72"/>
+      <c r="B215" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="C215" s="56"/>
+      <c r="D215" s="56"/>
+      <c r="E215" s="56"/>
+      <c r="F215" s="56"/>
+      <c r="G215" s="56"/>
+      <c r="H215" s="57"/>
+      <c r="I215" s="58"/>
     </row>
     <row r="216" ht="41" customHeight="1" spans="1:9">
       <c r="A216" s="42"/>
-      <c r="B216" s="59"/>
-      <c r="C216" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="D216" s="59"/>
-      <c r="E216" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="F216" s="59"/>
-      <c r="G216" s="59"/>
-      <c r="H216" s="59"/>
-      <c r="I216" s="59"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D216" s="15"/>
+      <c r="E216" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
+      <c r="H216" s="15"/>
+      <c r="I216" s="15"/>
     </row>
     <row r="217" ht="33" customHeight="1" spans="1:9">
       <c r="A217" s="42"/>
-      <c r="B217" s="59"/>
-      <c r="C217" s="59"/>
-      <c r="D217" s="59"/>
-      <c r="E217" s="59"/>
-      <c r="F217" s="59"/>
-      <c r="G217" s="59"/>
-      <c r="H217" s="59"/>
-      <c r="I217" s="59"/>
-    </row>
-    <row r="218" ht="28.8" spans="1:9">
+      <c r="B217" s="15"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="15"/>
+      <c r="H217" s="15"/>
+      <c r="I217" s="15"/>
+    </row>
+    <row r="218" ht="30" spans="1:9">
       <c r="A218" s="42"/>
-      <c r="B218" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="C218" s="66"/>
-      <c r="D218" s="66"/>
-      <c r="E218" s="66"/>
-      <c r="F218" s="66"/>
-      <c r="G218" s="66"/>
-      <c r="H218" s="67"/>
-      <c r="I218" s="72"/>
+      <c r="B218" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C218" s="56"/>
+      <c r="D218" s="56"/>
+      <c r="E218" s="56"/>
+      <c r="F218" s="56"/>
+      <c r="G218" s="56"/>
+      <c r="H218" s="57"/>
+      <c r="I218" s="58"/>
     </row>
     <row r="219" ht="40" customHeight="1" spans="1:9">
       <c r="A219" s="42"/>
-      <c r="B219" s="59"/>
-      <c r="C219" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="D219" s="59"/>
-      <c r="E219" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="F219" s="59"/>
-      <c r="G219" s="59"/>
-      <c r="H219" s="59"/>
-      <c r="I219" s="59"/>
+      <c r="B219" s="15"/>
+      <c r="C219" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F219" s="15"/>
+      <c r="G219" s="15"/>
+      <c r="H219" s="15"/>
+      <c r="I219" s="15"/>
     </row>
     <row r="220" ht="36" customHeight="1" spans="1:9">
       <c r="A220" s="42"/>
-      <c r="B220" s="59"/>
-      <c r="C220" s="59"/>
-      <c r="D220" s="59"/>
-      <c r="E220" s="59"/>
-      <c r="F220" s="59"/>
-      <c r="G220" s="59"/>
-      <c r="H220" s="59"/>
-      <c r="I220" s="59"/>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="B220" s="15"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="15"/>
+      <c r="G220" s="15"/>
+      <c r="H220" s="15"/>
+      <c r="I220" s="15"/>
+    </row>
+    <row r="221" ht="30" spans="1:9">
       <c r="A221" s="42"/>
-      <c r="B221" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="C221" s="66"/>
-      <c r="D221" s="66"/>
-      <c r="E221" s="66"/>
-      <c r="F221" s="66"/>
-      <c r="G221" s="66"/>
-      <c r="H221" s="67"/>
-      <c r="I221" s="72"/>
+      <c r="B221" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C221" s="56"/>
+      <c r="D221" s="56"/>
+      <c r="E221" s="56"/>
+      <c r="F221" s="56"/>
+      <c r="G221" s="56"/>
+      <c r="H221" s="57"/>
+      <c r="I221" s="58"/>
     </row>
     <row r="222" ht="30" customHeight="1" spans="1:9">
       <c r="A222" s="42"/>
-      <c r="B222" s="59"/>
-      <c r="C222" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="D222" s="59"/>
-      <c r="E222" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="F222" s="59"/>
-      <c r="G222" s="59"/>
-      <c r="H222" s="59"/>
-      <c r="I222" s="59"/>
+      <c r="B222" s="15"/>
+      <c r="C222" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F222" s="15"/>
+      <c r="G222" s="15"/>
+      <c r="H222" s="15"/>
+      <c r="I222" s="15"/>
     </row>
     <row r="223" ht="33" customHeight="1" spans="1:9">
       <c r="A223" s="42"/>
-      <c r="B223" s="59"/>
-      <c r="C223" s="59"/>
-      <c r="D223" s="59"/>
-      <c r="E223" s="59"/>
-      <c r="F223" s="59"/>
-      <c r="G223" s="59"/>
-      <c r="H223" s="59"/>
-      <c r="I223" s="59"/>
+      <c r="B223" s="15"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="15"/>
+      <c r="G223" s="15"/>
+      <c r="H223" s="15"/>
+      <c r="I223" s="15"/>
     </row>
     <row r="224" spans="2:9">
-      <c r="B224" s="64" t="s">
+      <c r="B224" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C224" s="56"/>
+      <c r="D224" s="56"/>
+      <c r="E224" s="56"/>
+      <c r="F224" s="56"/>
+      <c r="G224" s="56"/>
+      <c r="H224" s="57"/>
+      <c r="I224" s="58"/>
+    </row>
+    <row r="225" spans="2:9">
+      <c r="B225" s="15"/>
+      <c r="C225" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F225" s="15"/>
+      <c r="G225" s="15"/>
+      <c r="H225" s="15"/>
+      <c r="I225" s="15"/>
+    </row>
+    <row r="226" spans="2:9">
+      <c r="B226" s="15"/>
+      <c r="C226" s="15"/>
+      <c r="D226" s="15"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="15"/>
+      <c r="G226" s="15"/>
+      <c r="H226" s="15"/>
+      <c r="I226" s="15"/>
+    </row>
+    <row r="227" spans="2:9">
+      <c r="B227" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="C224" s="64"/>
-      <c r="D224" s="64"/>
-      <c r="E224" s="64"/>
-      <c r="F224" s="64"/>
-      <c r="G224" s="64"/>
-      <c r="H224" s="65"/>
-      <c r="I224" s="71"/>
-    </row>
-    <row r="225" spans="2:9">
-      <c r="B225" s="59"/>
-      <c r="C225" s="59"/>
-      <c r="D225" s="59"/>
-      <c r="E225" s="59" t="s">
+      <c r="C227" s="51"/>
+      <c r="D227" s="51"/>
+      <c r="E227" s="51"/>
+      <c r="F227" s="51"/>
+      <c r="G227" s="51"/>
+      <c r="H227" s="52"/>
+      <c r="I227" s="55"/>
+    </row>
+    <row r="228" ht="40" customHeight="1" spans="2:9">
+      <c r="B228" s="15"/>
+      <c r="C228" s="15"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="F225" s="59"/>
-      <c r="G225" s="59"/>
-      <c r="H225" s="59"/>
-      <c r="I225" s="59"/>
-    </row>
-    <row r="226" spans="2:9">
-      <c r="B226" s="59"/>
-      <c r="C226" s="59"/>
-      <c r="D226" s="59"/>
-      <c r="E226" s="59"/>
-      <c r="F226" s="59"/>
-      <c r="G226" s="59"/>
-      <c r="H226" s="59"/>
-      <c r="I226" s="59"/>
-    </row>
-    <row r="227" spans="2:9">
-      <c r="B227" s="66" t="s">
+      <c r="F228" s="15"/>
+      <c r="G228" s="15"/>
+      <c r="H228" s="15"/>
+      <c r="I228" s="15"/>
+    </row>
+    <row r="229" ht="28" customHeight="1" spans="2:9">
+      <c r="B229" s="15"/>
+      <c r="C229" s="15"/>
+      <c r="D229" s="15"/>
+      <c r="E229" s="15"/>
+      <c r="F229" s="15"/>
+      <c r="G229" s="15"/>
+      <c r="H229" s="15"/>
+      <c r="I229" s="15"/>
+    </row>
+    <row r="230" spans="2:9">
+      <c r="B230" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="C227" s="66"/>
-      <c r="D227" s="66"/>
-      <c r="E227" s="66"/>
-      <c r="F227" s="66"/>
-      <c r="G227" s="66"/>
-      <c r="H227" s="67"/>
-      <c r="I227" s="72"/>
-    </row>
-    <row r="228" ht="40" customHeight="1" spans="2:9">
-      <c r="B228" s="59"/>
-      <c r="C228" s="59" t="s">
+      <c r="C230" s="56"/>
+      <c r="D230" s="56"/>
+      <c r="E230" s="56"/>
+      <c r="F230" s="56"/>
+      <c r="G230" s="56"/>
+      <c r="H230" s="57"/>
+      <c r="I230" s="58"/>
+    </row>
+    <row r="231" ht="29" customHeight="1" spans="2:9">
+      <c r="B231" s="15"/>
+      <c r="C231" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="D228" s="59"/>
-      <c r="E228" s="59" t="s">
+      <c r="D231" s="15"/>
+      <c r="E231" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="F228" s="59"/>
-      <c r="G228" s="59"/>
-      <c r="H228" s="59"/>
-      <c r="I228" s="59"/>
-    </row>
-    <row r="229" ht="28" customHeight="1" spans="2:9">
-      <c r="B229" s="59"/>
-      <c r="C229" s="59"/>
-      <c r="D229" s="59"/>
-      <c r="E229" s="59"/>
-      <c r="F229" s="59"/>
-      <c r="G229" s="59"/>
-      <c r="H229" s="59"/>
-      <c r="I229" s="59"/>
-    </row>
-    <row r="230" spans="2:9">
-      <c r="B230" s="66" t="s">
+      <c r="F231" s="15"/>
+      <c r="G231" s="15"/>
+      <c r="H231" s="15"/>
+      <c r="I231" s="15"/>
+    </row>
+    <row r="232" ht="32" customHeight="1" spans="2:9">
+      <c r="B232" s="15"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="15"/>
+      <c r="G232" s="15"/>
+      <c r="H232" s="15"/>
+      <c r="I232" s="15"/>
+    </row>
+    <row r="233" spans="2:9">
+      <c r="B233" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="C230" s="66"/>
-      <c r="D230" s="66"/>
-      <c r="E230" s="66"/>
-      <c r="F230" s="66"/>
-      <c r="G230" s="66"/>
-      <c r="H230" s="67"/>
-      <c r="I230" s="72"/>
-    </row>
-    <row r="231" ht="29" customHeight="1" spans="2:9">
-      <c r="B231" s="59"/>
-      <c r="C231" s="59" t="s">
+      <c r="C233" s="56"/>
+      <c r="D233" s="56"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="56"/>
+      <c r="G233" s="56"/>
+      <c r="H233" s="57"/>
+      <c r="I233" s="58"/>
+    </row>
+    <row r="234" ht="35" customHeight="1" spans="2:9">
+      <c r="B234" s="15"/>
+      <c r="C234" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="D231" s="59"/>
-      <c r="E231" s="59" t="s">
+      <c r="D234" s="15"/>
+      <c r="E234" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="F231" s="59"/>
-      <c r="G231" s="59"/>
-      <c r="H231" s="59"/>
-      <c r="I231" s="59"/>
-    </row>
-    <row r="232" ht="32" customHeight="1" spans="2:9">
-      <c r="B232" s="59"/>
-      <c r="C232" s="59"/>
-      <c r="D232" s="59"/>
-      <c r="E232" s="59"/>
-      <c r="F232" s="59"/>
-      <c r="G232" s="59"/>
-      <c r="H232" s="59"/>
-      <c r="I232" s="59"/>
-    </row>
-    <row r="233" spans="2:9">
-      <c r="B233" s="66" t="s">
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
+      <c r="H234" s="15"/>
+      <c r="I234" s="15"/>
+    </row>
+    <row r="235" ht="23" customHeight="1" spans="2:9">
+      <c r="B235" s="15"/>
+      <c r="C235" s="15"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="15"/>
+      <c r="G235" s="15"/>
+      <c r="H235" s="15"/>
+      <c r="I235" s="15"/>
+    </row>
+    <row r="236" spans="2:9">
+      <c r="B236" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="C233" s="66"/>
-      <c r="D233" s="66"/>
-      <c r="E233" s="66"/>
-      <c r="F233" s="66"/>
-      <c r="G233" s="66"/>
-      <c r="H233" s="67"/>
-      <c r="I233" s="72"/>
-    </row>
-    <row r="234" ht="35" customHeight="1" spans="2:9">
-      <c r="B234" s="59"/>
-      <c r="C234" s="59" t="s">
+      <c r="C236" s="56"/>
+      <c r="D236" s="56"/>
+      <c r="E236" s="56"/>
+      <c r="F236" s="56"/>
+      <c r="G236" s="56"/>
+      <c r="H236" s="57"/>
+      <c r="I236" s="58"/>
+    </row>
+    <row r="237" ht="38" customHeight="1" spans="2:9">
+      <c r="B237" s="15"/>
+      <c r="C237" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D234" s="59"/>
-      <c r="E234" s="59" t="s">
+      <c r="D237" s="15"/>
+      <c r="E237" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="F234" s="59"/>
-      <c r="G234" s="59"/>
-      <c r="H234" s="59"/>
-      <c r="I234" s="59"/>
-    </row>
-    <row r="235" ht="23" customHeight="1" spans="2:9">
-      <c r="B235" s="59"/>
-      <c r="C235" s="59"/>
-      <c r="D235" s="59"/>
-      <c r="E235" s="59"/>
-      <c r="F235" s="59"/>
-      <c r="G235" s="59"/>
-      <c r="H235" s="59"/>
-      <c r="I235" s="59"/>
-    </row>
-    <row r="236" spans="2:9">
-      <c r="B236" s="66" t="s">
+      <c r="F237" s="15"/>
+      <c r="G237" s="15"/>
+      <c r="H237" s="15"/>
+      <c r="I237" s="15"/>
+    </row>
+    <row r="238" spans="2:9">
+      <c r="B238" s="15"/>
+      <c r="C238" s="15"/>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="15"/>
+      <c r="H238" s="15"/>
+      <c r="I238" s="15"/>
+    </row>
+    <row r="239" spans="2:9">
+      <c r="B239" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="C236" s="66"/>
-      <c r="D236" s="66"/>
-      <c r="E236" s="66"/>
-      <c r="F236" s="66"/>
-      <c r="G236" s="66"/>
-      <c r="H236" s="67"/>
-      <c r="I236" s="72"/>
-    </row>
-    <row r="237" ht="38" customHeight="1" spans="2:9">
-      <c r="B237" s="59"/>
-      <c r="C237" s="59" t="s">
+      <c r="C239" s="56"/>
+      <c r="D239" s="56"/>
+      <c r="E239" s="56"/>
+      <c r="F239" s="56"/>
+      <c r="G239" s="56"/>
+      <c r="H239" s="57"/>
+      <c r="I239" s="58"/>
+    </row>
+    <row r="240" spans="2:9">
+      <c r="B240" s="15"/>
+      <c r="C240" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D237" s="59"/>
-      <c r="E237" s="59" t="s">
+      <c r="D240" s="15"/>
+      <c r="E240" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="F237" s="59"/>
-      <c r="G237" s="59"/>
-      <c r="H237" s="59"/>
-      <c r="I237" s="59"/>
-    </row>
-    <row r="238" spans="2:9">
-      <c r="B238" s="59"/>
-      <c r="C238" s="59"/>
-      <c r="D238" s="59"/>
-      <c r="E238" s="59"/>
-      <c r="F238" s="59"/>
-      <c r="G238" s="59"/>
-      <c r="H238" s="59"/>
-      <c r="I238" s="59"/>
-    </row>
-    <row r="239" spans="2:9">
-      <c r="B239" s="64" t="s">
+      <c r="F240" s="15"/>
+      <c r="G240" s="15"/>
+      <c r="H240" s="15"/>
+      <c r="I240" s="15"/>
+    </row>
+    <row r="241" spans="2:9">
+      <c r="B241" s="15"/>
+      <c r="C241" s="15"/>
+      <c r="D241" s="15"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="15"/>
+      <c r="G241" s="15"/>
+      <c r="H241" s="15"/>
+      <c r="I241" s="15"/>
+    </row>
+    <row r="242" spans="2:9">
+      <c r="B242" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="C239" s="64"/>
-      <c r="D239" s="64"/>
-      <c r="E239" s="64"/>
-      <c r="F239" s="64"/>
-      <c r="G239" s="64"/>
-      <c r="H239" s="65"/>
-      <c r="I239" s="71"/>
-    </row>
-    <row r="240" spans="2:9">
-      <c r="B240" s="59"/>
-      <c r="C240" s="59"/>
-      <c r="D240" s="59"/>
-      <c r="E240" s="59" t="s">
+      <c r="C242" s="51"/>
+      <c r="D242" s="51"/>
+      <c r="E242" s="51"/>
+      <c r="F242" s="51"/>
+      <c r="G242" s="51"/>
+      <c r="H242" s="52"/>
+      <c r="I242" s="55"/>
+    </row>
+    <row r="243" ht="34" customHeight="1" spans="2:9">
+      <c r="B243" s="15"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="15"/>
+      <c r="E243" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="F240" s="59"/>
-      <c r="G240" s="59"/>
-      <c r="H240" s="59"/>
-      <c r="I240" s="59"/>
-    </row>
-    <row r="241" spans="2:9">
-      <c r="B241" s="59"/>
-      <c r="C241" s="59"/>
-      <c r="D241" s="59"/>
-      <c r="E241" s="59"/>
-      <c r="F241" s="59"/>
-      <c r="G241" s="59"/>
-      <c r="H241" s="59"/>
-      <c r="I241" s="59"/>
-    </row>
-    <row r="242" spans="2:9">
-      <c r="B242" s="66" t="s">
+      <c r="F243" s="15"/>
+      <c r="G243" s="15"/>
+      <c r="H243" s="15"/>
+      <c r="I243" s="15"/>
+    </row>
+    <row r="244" ht="25" customHeight="1" spans="2:9">
+      <c r="B244" s="15"/>
+      <c r="C244" s="15"/>
+      <c r="D244" s="15"/>
+      <c r="E244" s="15"/>
+      <c r="F244" s="15"/>
+      <c r="G244" s="15"/>
+      <c r="H244" s="15"/>
+      <c r="I244" s="15"/>
+    </row>
+    <row r="245" spans="2:9">
+      <c r="B245" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="C242" s="66"/>
-      <c r="D242" s="66"/>
-      <c r="E242" s="66"/>
-      <c r="F242" s="66"/>
-      <c r="G242" s="66"/>
-      <c r="H242" s="67"/>
-      <c r="I242" s="72"/>
-    </row>
-    <row r="243" ht="34" customHeight="1" spans="2:9">
-      <c r="B243" s="59"/>
-      <c r="C243" s="59" t="s">
+      <c r="C245" s="56"/>
+      <c r="D245" s="56"/>
+      <c r="E245" s="56"/>
+      <c r="F245" s="56"/>
+      <c r="G245" s="56"/>
+      <c r="H245" s="57"/>
+      <c r="I245" s="58"/>
+    </row>
+    <row r="246" spans="2:9">
+      <c r="B246" s="15"/>
+      <c r="C246" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D243" s="59"/>
-      <c r="E243" s="59" t="s">
+      <c r="D246" s="15"/>
+      <c r="E246" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F243" s="59"/>
-      <c r="G243" s="59"/>
-      <c r="H243" s="59"/>
-      <c r="I243" s="59"/>
-    </row>
-    <row r="244" ht="25" customHeight="1" spans="2:9">
-      <c r="B244" s="59"/>
-      <c r="C244" s="59"/>
-      <c r="D244" s="59"/>
-      <c r="E244" s="59"/>
-      <c r="F244" s="59"/>
-      <c r="G244" s="59"/>
-      <c r="H244" s="59"/>
-      <c r="I244" s="59"/>
-    </row>
-    <row r="245" spans="2:9">
-      <c r="B245" s="66" t="s">
+      <c r="F246" s="15"/>
+      <c r="G246" s="15"/>
+      <c r="H246" s="15"/>
+      <c r="I246" s="15"/>
+    </row>
+    <row r="247" spans="2:9">
+      <c r="B247" s="15"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="15"/>
+      <c r="G247" s="15"/>
+      <c r="H247" s="15"/>
+      <c r="I247" s="15"/>
+    </row>
+    <row r="248" spans="2:9">
+      <c r="B248" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="C245" s="66"/>
-      <c r="D245" s="66"/>
-      <c r="E245" s="66"/>
-      <c r="F245" s="66"/>
-      <c r="G245" s="66"/>
-      <c r="H245" s="67"/>
-      <c r="I245" s="72"/>
-    </row>
-    <row r="246" spans="2:9">
-      <c r="B246" s="59"/>
-      <c r="C246" s="59" t="s">
+      <c r="C248" s="56"/>
+      <c r="D248" s="56"/>
+      <c r="E248" s="56"/>
+      <c r="F248" s="56"/>
+      <c r="G248" s="56"/>
+      <c r="H248" s="57"/>
+      <c r="I248" s="58"/>
+    </row>
+    <row r="249" spans="2:9">
+      <c r="B249" s="15"/>
+      <c r="C249" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D246" s="59"/>
-      <c r="E246" s="59" t="s">
+      <c r="D249" s="15"/>
+      <c r="E249" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F246" s="59"/>
-      <c r="G246" s="59"/>
-      <c r="H246" s="59"/>
-      <c r="I246" s="59"/>
-    </row>
-    <row r="247" spans="2:9">
-      <c r="B247" s="59"/>
-      <c r="C247" s="59"/>
-      <c r="D247" s="59"/>
-      <c r="E247" s="59"/>
-      <c r="F247" s="59"/>
-      <c r="G247" s="59"/>
-      <c r="H247" s="59"/>
-      <c r="I247" s="59"/>
-    </row>
-    <row r="248" spans="2:9">
-      <c r="B248" s="66" t="s">
+      <c r="F249" s="15"/>
+      <c r="G249" s="15"/>
+      <c r="H249" s="15"/>
+      <c r="I249" s="15"/>
+    </row>
+    <row r="250" spans="2:9">
+      <c r="B250" s="15"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="15"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="15"/>
+      <c r="G250" s="15"/>
+      <c r="H250" s="15"/>
+      <c r="I250" s="15"/>
+    </row>
+    <row r="251" spans="2:9">
+      <c r="B251" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="C248" s="66"/>
-      <c r="D248" s="66"/>
-      <c r="E248" s="66"/>
-      <c r="F248" s="66"/>
-      <c r="G248" s="66"/>
-      <c r="H248" s="67"/>
-      <c r="I248" s="72"/>
-    </row>
-    <row r="249" spans="2:9">
-      <c r="B249" s="59"/>
-      <c r="C249" s="59" t="s">
+      <c r="C251" s="56"/>
+      <c r="D251" s="56"/>
+      <c r="E251" s="56"/>
+      <c r="F251" s="56"/>
+      <c r="G251" s="56"/>
+      <c r="H251" s="57"/>
+      <c r="I251" s="58"/>
+    </row>
+    <row r="252" spans="2:9">
+      <c r="B252" s="15"/>
+      <c r="C252" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D249" s="59"/>
-      <c r="E249" s="59" t="s">
+      <c r="D252" s="15"/>
+      <c r="E252" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F249" s="59"/>
-      <c r="G249" s="59"/>
-      <c r="H249" s="59"/>
-      <c r="I249" s="59"/>
-    </row>
-    <row r="250" spans="2:9">
-      <c r="B250" s="59"/>
-      <c r="C250" s="59"/>
-      <c r="D250" s="59"/>
-      <c r="E250" s="59"/>
-      <c r="F250" s="59"/>
-      <c r="G250" s="59"/>
-      <c r="H250" s="59"/>
-      <c r="I250" s="59"/>
+      <c r="F252" s="15"/>
+      <c r="G252" s="15"/>
+      <c r="H252" s="15"/>
+      <c r="I252" s="15"/>
+    </row>
+    <row r="253" spans="2:9">
+      <c r="B253" s="15"/>
+      <c r="C253" s="15"/>
+      <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="15"/>
+      <c r="G253" s="15"/>
+      <c r="H253" s="15"/>
+      <c r="I253" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="635">
+  <mergeCells count="636">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
@@ -6947,7 +6939,6 @@
     <mergeCell ref="H179:I179"/>
     <mergeCell ref="H182:I182"/>
     <mergeCell ref="H185:I185"/>
-    <mergeCell ref="H188:I188"/>
     <mergeCell ref="H191:I191"/>
     <mergeCell ref="H194:I194"/>
     <mergeCell ref="H197:I197"/>
@@ -6968,6 +6959,7 @@
     <mergeCell ref="H242:I242"/>
     <mergeCell ref="H245:I245"/>
     <mergeCell ref="H248:I248"/>
+    <mergeCell ref="H251:I251"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B25"/>
@@ -7024,7 +7016,6 @@
     <mergeCell ref="B180:B181"/>
     <mergeCell ref="B183:B184"/>
     <mergeCell ref="B186:B187"/>
-    <mergeCell ref="B189:B190"/>
     <mergeCell ref="B192:B193"/>
     <mergeCell ref="B195:B196"/>
     <mergeCell ref="B198:B199"/>
@@ -7045,6 +7036,7 @@
     <mergeCell ref="B243:B244"/>
     <mergeCell ref="B246:B247"/>
     <mergeCell ref="B249:B250"/>
+    <mergeCell ref="B252:B253"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C22"/>
@@ -7102,7 +7094,6 @@
     <mergeCell ref="C180:C181"/>
     <mergeCell ref="C183:C184"/>
     <mergeCell ref="C186:C187"/>
-    <mergeCell ref="C189:C190"/>
     <mergeCell ref="C192:C193"/>
     <mergeCell ref="C195:C196"/>
     <mergeCell ref="C198:C199"/>
@@ -7123,6 +7114,7 @@
     <mergeCell ref="C243:C244"/>
     <mergeCell ref="C246:C247"/>
     <mergeCell ref="C249:C250"/>
+    <mergeCell ref="C252:C253"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D21:D22"/>
@@ -7180,7 +7172,6 @@
     <mergeCell ref="D180:D181"/>
     <mergeCell ref="D183:D184"/>
     <mergeCell ref="D186:D187"/>
-    <mergeCell ref="D189:D190"/>
     <mergeCell ref="D192:D193"/>
     <mergeCell ref="D195:D196"/>
     <mergeCell ref="D198:D199"/>
@@ -7201,6 +7192,7 @@
     <mergeCell ref="D243:D244"/>
     <mergeCell ref="D246:D247"/>
     <mergeCell ref="D249:D250"/>
+    <mergeCell ref="D252:D253"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E21:E22"/>
@@ -7258,7 +7250,6 @@
     <mergeCell ref="E180:E181"/>
     <mergeCell ref="E183:E184"/>
     <mergeCell ref="E186:E187"/>
-    <mergeCell ref="E189:E190"/>
     <mergeCell ref="E192:E193"/>
     <mergeCell ref="E195:E196"/>
     <mergeCell ref="E198:E199"/>
@@ -7279,6 +7270,7 @@
     <mergeCell ref="E243:E244"/>
     <mergeCell ref="E246:E247"/>
     <mergeCell ref="E249:E250"/>
+    <mergeCell ref="E252:E253"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F21:F22"/>
@@ -7336,7 +7328,6 @@
     <mergeCell ref="F180:F181"/>
     <mergeCell ref="F183:F184"/>
     <mergeCell ref="F186:F187"/>
-    <mergeCell ref="F189:F190"/>
     <mergeCell ref="F192:F193"/>
     <mergeCell ref="F195:F196"/>
     <mergeCell ref="F198:F199"/>
@@ -7357,6 +7348,7 @@
     <mergeCell ref="F243:F244"/>
     <mergeCell ref="F246:F247"/>
     <mergeCell ref="F249:F250"/>
+    <mergeCell ref="F252:F253"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G21:G22"/>
@@ -7414,7 +7406,6 @@
     <mergeCell ref="G180:G181"/>
     <mergeCell ref="G183:G184"/>
     <mergeCell ref="G186:G187"/>
-    <mergeCell ref="G189:G190"/>
     <mergeCell ref="G192:G193"/>
     <mergeCell ref="G195:G196"/>
     <mergeCell ref="G198:G199"/>
@@ -7435,6 +7426,7 @@
     <mergeCell ref="G243:G244"/>
     <mergeCell ref="G246:G247"/>
     <mergeCell ref="G249:G250"/>
+    <mergeCell ref="G252:G253"/>
     <mergeCell ref="H87:I88"/>
     <mergeCell ref="H81:I82"/>
     <mergeCell ref="H84:I85"/>
@@ -7493,7 +7485,6 @@
     <mergeCell ref="H180:I181"/>
     <mergeCell ref="H183:I184"/>
     <mergeCell ref="H186:I187"/>
-    <mergeCell ref="H189:I190"/>
     <mergeCell ref="H192:I193"/>
     <mergeCell ref="H195:I196"/>
     <mergeCell ref="H198:I199"/>
@@ -7514,6 +7505,8 @@
     <mergeCell ref="H243:I244"/>
     <mergeCell ref="H246:I247"/>
     <mergeCell ref="H249:I250"/>
+    <mergeCell ref="H252:I253"/>
+    <mergeCell ref="A188:I190"/>
   </mergeCells>
   <pageMargins left="0.75" right="5.09375" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
